--- a/receiptsData/旅游团款结算单数据.xlsx
+++ b/receiptsData/旅游团款结算单数据.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\PycharmProjects\customReceipts\receiptsData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44789246-6518-4C6C-BDCC-6DA8C0AF5280}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FD17D51-A8E2-4B8D-8A1D-C7E43B299123}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{BADE6DAC-E3B5-42DE-92D5-9C0999B69204}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4942" uniqueCount="1474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5433" uniqueCount="1475">
   <si>
     <t>付款单位</t>
   </si>
@@ -4467,6 +4467,10 @@
   </si>
   <si>
     <t>40*43=1720</t>
+  </si>
+  <si>
+    <t>19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4540,7 +4544,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4565,13 +4569,61 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="30">
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode="[DBNum2][$-804]General"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode="[DBNum2][$-804]General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode="[DBNum2][$-804]General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode="[DBNum2][$-804]General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode="[DBNum2][$-804]General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode="[DBNum2][$-804]General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode="[DBNum2][$-804]General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode="[DBNum2][$-804]General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="177" formatCode="[DBNum2][$-804]General"/>
@@ -4604,52 +4656,7 @@
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="177" formatCode="[DBNum2][$-804]General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="177" formatCode="[DBNum2][$-804]General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="177" formatCode="[DBNum2][$-804]General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="177" formatCode="[DBNum2][$-804]General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="177" formatCode="[DBNum2][$-804]General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="177" formatCode="[DBNum2][$-804]General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="177" formatCode="[DBNum2][$-804]General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="177" formatCode="[DBNum2][$-804]General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="177" formatCode="[DBNum2][$-804]General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="177" formatCode="[DBNum2][$-804]General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="177" formatCode="[DBNum2][$-804]General"/>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -4718,39 +4725,39 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9C3CC0D4-F624-415C-9E28-38B00DE624D7}" name="表2" displayName="表2" ref="A1:W492" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27">
   <autoFilter ref="A1:W492" xr:uid="{B3838ACA-4FA7-429D-A381-359E665F196C}"/>
   <tableColumns count="23">
-    <tableColumn id="1" xr3:uid="{6496E721-7881-41FB-B2EB-8693BBA67207}" name="付款单位" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{595E67CF-5FCE-4D36-8663-087461F1CB0C}" name="转帐" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{C20E6731-B697-4FC8-BC2F-F5F29305D6EF}" name="现付" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{8D08AE57-8611-46E7-97A5-AFF04A53605B}" name="团号" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{69A5A686-2C37-467A-B404-EDE2D9E70748}" name="人数" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{AD88A272-02B3-4F4A-9A33-F6AE0F4F43F2}" name="天" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{F4291CE3-6CE4-489C-846D-B196A31D419A}" name="晚" dataDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{B0E569FE-9CFD-4FA1-B4B8-7CFD16C07485}" name="旅游综合费" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{F3E2A1DC-D937-44B5-A564-96B267D7A6DD}" name="垫付票款" dataDxfId="2"/>
-    <tableColumn id="10" xr3:uid="{4CDBA9C0-EFE6-4978-8D4A-A41D3FF9361F}" name="政府调节基金" dataDxfId="0"/>
-    <tableColumn id="11" xr3:uid="{AFEDB6E9-379F-40D2-AC68-18960ED092D2}" name="万" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{6496E721-7881-41FB-B2EB-8693BBA67207}" name="付款单位" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{595E67CF-5FCE-4D36-8663-087461F1CB0C}" name="转帐" dataDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{C20E6731-B697-4FC8-BC2F-F5F29305D6EF}" name="现付" dataDxfId="24"/>
+    <tableColumn id="4" xr3:uid="{8D08AE57-8611-46E7-97A5-AFF04A53605B}" name="团号" dataDxfId="23"/>
+    <tableColumn id="5" xr3:uid="{69A5A686-2C37-467A-B404-EDE2D9E70748}" name="人数" dataDxfId="22"/>
+    <tableColumn id="6" xr3:uid="{AD88A272-02B3-4F4A-9A33-F6AE0F4F43F2}" name="天" dataDxfId="21"/>
+    <tableColumn id="7" xr3:uid="{F4291CE3-6CE4-489C-846D-B196A31D419A}" name="晚" dataDxfId="20"/>
+    <tableColumn id="8" xr3:uid="{B0E569FE-9CFD-4FA1-B4B8-7CFD16C07485}" name="旅游综合费" dataDxfId="19"/>
+    <tableColumn id="9" xr3:uid="{F3E2A1DC-D937-44B5-A564-96B267D7A6DD}" name="垫付票款" dataDxfId="18"/>
+    <tableColumn id="10" xr3:uid="{4CDBA9C0-EFE6-4978-8D4A-A41D3FF9361F}" name="政府调节基金" dataDxfId="17"/>
+    <tableColumn id="11" xr3:uid="{AFEDB6E9-379F-40D2-AC68-18960ED092D2}" name="万" dataDxfId="16">
       <calculatedColumnFormula>IF(TRUNC((TRUNC(表2[[#This Row],[金额]],-4)-TRUNC(表2[[#This Row],[金额]],-5))/10000)=0,"X",TEXT(TRUNC((TRUNC(表2[[#This Row],[金额]],-4)-TRUNC(表2[[#This Row],[金额]],-5))/10000),"[DBNum2]"))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{2B094569-6808-4163-9B6E-7DBD7B65D6FB}" name="千" dataDxfId="26">
+    <tableColumn id="12" xr3:uid="{2B094569-6808-4163-9B6E-7DBD7B65D6FB}" name="千" dataDxfId="15">
       <calculatedColumnFormula>IF(TRUNC((TRUNC(表2[[#This Row],[金额]],-3)-TRUNC(表2[[#This Row],[金额]],-4))/1000)=0,"X",TEXT(TRUNC((TRUNC(表2[[#This Row],[金额]],-3)-TRUNC(表2[[#This Row],[金额]],-4))/1000),"[DBNum2]"))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{14219BC9-1CBA-4F39-AC55-90CE114BD0BA}" name="百" dataDxfId="25">
+    <tableColumn id="13" xr3:uid="{14219BC9-1CBA-4F39-AC55-90CE114BD0BA}" name="百" dataDxfId="14">
       <calculatedColumnFormula>IF(TRUNC((TRUNC(表2[[#This Row],[金额]],-2)-TRUNC(表2[[#This Row],[金额]],-3))/100)=0,"X",TEXT(TRUNC((TRUNC(表2[[#This Row],[金额]],-2)-TRUNC(表2[[#This Row],[金额]],-3))/100),"[DBNum2]"))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{35A200E0-A906-4751-A024-8244459C5129}" name="拾" dataDxfId="24">
+    <tableColumn id="14" xr3:uid="{35A200E0-A906-4751-A024-8244459C5129}" name="拾" dataDxfId="13">
       <calculatedColumnFormula>IF(TRUNC((TRUNC(表2[[#This Row],[金额]],-1)-TRUNC(表2[[#This Row],[金额]],-2))/10)=0,"X",TEXT(TRUNC((TRUNC(表2[[#This Row],[金额]],-1)-TRUNC(表2[[#This Row],[金额]],-2))/10),"[DBNum2]"))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{0A8FD463-3A16-4495-928F-2FE8DFF5D339}" name="元" dataDxfId="23">
+    <tableColumn id="15" xr3:uid="{0A8FD463-3A16-4495-928F-2FE8DFF5D339}" name="元" dataDxfId="12">
       <calculatedColumnFormula>IF(TRUNC((TRUNC(表2[[#This Row],[金额]],0)-TRUNC(表2[[#This Row],[金额]],-1)))=0,"X",TEXT(TRUNC(TRUNC(表2[[#This Row],[金额]],0)-TRUNC(表2[[#This Row],[金额]],-1)),"[DBNum2]"))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{B1896C84-5985-4B44-A6F2-FAE795161AD7}" name="金额" dataDxfId="22"/>
-    <tableColumn id="17" xr3:uid="{901C8324-67F8-479A-853A-8673D7D223AA}" name="计调负责人" dataDxfId="21"/>
-    <tableColumn id="18" xr3:uid="{2BBCDDE8-E237-4BFF-B91F-6B35952B727B}" name="财务负责人" dataDxfId="20"/>
-    <tableColumn id="19" xr3:uid="{0E61CF8F-C072-43CE-ADC6-2C95AA3294F0}" name="经办人" dataDxfId="19"/>
-    <tableColumn id="20" xr3:uid="{2CBD378D-3E40-4677-B65A-67BD193A1DBA}" name="年" dataDxfId="18"/>
-    <tableColumn id="21" xr3:uid="{27351D80-B021-4A98-B89B-C335D1313F21}" name="月" dataDxfId="17"/>
-    <tableColumn id="22" xr3:uid="{361060B7-DF10-49BE-B089-94B6F3BCB51F}" name="日" dataDxfId="16"/>
-    <tableColumn id="23" xr3:uid="{B018F2F2-17AB-4641-B23E-866C0D495BD7}" name="凭证字号" dataDxfId="15"/>
+    <tableColumn id="16" xr3:uid="{B1896C84-5985-4B44-A6F2-FAE795161AD7}" name="金额" dataDxfId="11"/>
+    <tableColumn id="17" xr3:uid="{901C8324-67F8-479A-853A-8673D7D223AA}" name="计调负责人" dataDxfId="10"/>
+    <tableColumn id="18" xr3:uid="{2BBCDDE8-E237-4BFF-B91F-6B35952B727B}" name="财务负责人" dataDxfId="9"/>
+    <tableColumn id="19" xr3:uid="{0E61CF8F-C072-43CE-ADC6-2C95AA3294F0}" name="经办人" dataDxfId="8"/>
+    <tableColumn id="20" xr3:uid="{2CBD378D-3E40-4677-B65A-67BD193A1DBA}" name="年" dataDxfId="7"/>
+    <tableColumn id="21" xr3:uid="{27351D80-B021-4A98-B89B-C335D1313F21}" name="月" dataDxfId="6"/>
+    <tableColumn id="22" xr3:uid="{361060B7-DF10-49BE-B089-94B6F3BCB51F}" name="日" dataDxfId="5"/>
+    <tableColumn id="23" xr3:uid="{B018F2F2-17AB-4641-B23E-866C0D495BD7}" name="凭证字号" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4760,13 +4767,13 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9E587679-5F03-4582-A60C-F5F21BA5A00B}" name="Sheet1" displayName="Sheet1" ref="A1:I492" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:I492" xr:uid="{BB0B86CA-A7A2-428C-B8A4-AD46731DE741}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{33D0F69D-3110-4BD0-ADE7-DC7B39AB5F36}" uniqueName="1" name="凭证字号" queryTableFieldId="1" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{F6AF00D7-F1D9-4E5C-BAAB-65D5EF3CCEBC}" uniqueName="2" name="付款单位" queryTableFieldId="2" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{08E5CFC1-768C-460F-A8E9-3B88E59E3055}" uniqueName="3" name="团号" queryTableFieldId="3" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{33D0F69D-3110-4BD0-ADE7-DC7B39AB5F36}" uniqueName="1" name="凭证字号" queryTableFieldId="1" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{F6AF00D7-F1D9-4E5C-BAAB-65D5EF3CCEBC}" uniqueName="2" name="付款单位" queryTableFieldId="2" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{08E5CFC1-768C-460F-A8E9-3B88E59E3055}" uniqueName="3" name="团号" queryTableFieldId="3" dataDxfId="1"/>
     <tableColumn id="4" xr3:uid="{1DF49F32-509B-4DA4-9008-2B37F50AB155}" uniqueName="4" name="天" queryTableFieldId="4"/>
     <tableColumn id="5" xr3:uid="{69C6EFEA-C3AF-43CD-94A2-4A630C66EF91}" uniqueName="5" name="晚" queryTableFieldId="5"/>
     <tableColumn id="9" xr3:uid="{6CE252E6-C8B4-4A38-BF16-130BA760469C}" uniqueName="9" name="人数" queryTableFieldId="9"/>
-    <tableColumn id="6" xr3:uid="{0A8A41BB-2832-4602-B797-685A92598743}" uniqueName="6" name="旅游综合费" queryTableFieldId="6" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{0A8A41BB-2832-4602-B797-685A92598743}" uniqueName="6" name="旅游综合费" queryTableFieldId="6" dataDxfId="0"/>
     <tableColumn id="7" xr3:uid="{9DD1DF83-C4C4-4806-A975-F9F55E069B37}" uniqueName="7" name="金额" queryTableFieldId="7"/>
     <tableColumn id="8" xr3:uid="{2430B8FC-59D9-4417-A846-A2B3C1E88182}" uniqueName="8" name="经办人" queryTableFieldId="8"/>
   </tableColumns>
@@ -5073,8 +5080,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{685EB6AA-65A8-47EE-852F-F6AB9BB6A43B}">
   <dimension ref="A1:W492"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:J492"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="U2" sqref="U2:U492"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5089,9 +5096,9 @@
     <col min="16" max="16" width="13.5" style="4" customWidth="1"/>
     <col min="17" max="18" width="9" style="4" customWidth="1"/>
     <col min="19" max="19" width="10.75" style="4" customWidth="1"/>
-    <col min="20" max="20" width="5.75" style="4" customWidth="1"/>
-    <col min="21" max="21" width="5.625" customWidth="1"/>
-    <col min="22" max="22" width="4.625" customWidth="1"/>
+    <col min="20" max="20" width="5.75" style="7" customWidth="1"/>
+    <col min="21" max="21" width="5.625" style="7" customWidth="1"/>
+    <col min="22" max="22" width="4.625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.2">
@@ -5152,13 +5159,13 @@
       <c r="S1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="8" t="s">
         <v>21</v>
       </c>
       <c r="W1" s="5" t="s">
@@ -5213,8 +5220,9 @@
       <c r="P2" s="2">
         <v>34780</v>
       </c>
-      <c r="U2" s="4"/>
-      <c r="V2" s="4"/>
+      <c r="T2" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W2" s="4" t="s">
         <v>25</v>
       </c>
@@ -5267,8 +5275,9 @@
       <c r="P3" s="2">
         <v>17150</v>
       </c>
-      <c r="U3" s="4"/>
-      <c r="V3" s="4"/>
+      <c r="T3" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W3" s="4" t="s">
         <v>30</v>
       </c>
@@ -5321,8 +5330,9 @@
       <c r="P4" s="2">
         <v>15240</v>
       </c>
-      <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
+      <c r="T4" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W4" s="4" t="s">
         <v>33</v>
       </c>
@@ -5375,8 +5385,9 @@
       <c r="P5" s="2">
         <v>15450</v>
       </c>
-      <c r="U5" s="4"/>
-      <c r="V5" s="4"/>
+      <c r="T5" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W5" s="4" t="s">
         <v>36</v>
       </c>
@@ -5429,8 +5440,9 @@
       <c r="P6" s="2">
         <v>24140</v>
       </c>
-      <c r="U6" s="4"/>
-      <c r="V6" s="4"/>
+      <c r="T6" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W6" s="4" t="s">
         <v>40</v>
       </c>
@@ -5483,8 +5495,9 @@
       <c r="P7" s="2">
         <v>25245</v>
       </c>
-      <c r="U7" s="4"/>
-      <c r="V7" s="4"/>
+      <c r="T7" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W7" s="4" t="s">
         <v>44</v>
       </c>
@@ -5537,8 +5550,9 @@
       <c r="P8" s="2">
         <v>24012</v>
       </c>
-      <c r="U8" s="4"/>
-      <c r="V8" s="4"/>
+      <c r="T8" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W8" s="4" t="s">
         <v>48</v>
       </c>
@@ -5591,8 +5605,9 @@
       <c r="P9" s="2">
         <v>19620</v>
       </c>
-      <c r="U9" s="4"/>
-      <c r="V9" s="4"/>
+      <c r="T9" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W9" s="4" t="s">
         <v>50</v>
       </c>
@@ -5645,8 +5660,9 @@
       <c r="P10" s="2">
         <v>10175</v>
       </c>
-      <c r="U10" s="4"/>
-      <c r="V10" s="4"/>
+      <c r="T10" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W10" s="4" t="s">
         <v>53</v>
       </c>
@@ -5699,8 +5715,9 @@
       <c r="P11" s="2">
         <v>29120</v>
       </c>
-      <c r="U11" s="4"/>
-      <c r="V11" s="4"/>
+      <c r="T11" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W11" s="4" t="s">
         <v>56</v>
       </c>
@@ -5753,8 +5770,9 @@
       <c r="P12" s="2">
         <v>19220</v>
       </c>
-      <c r="U12" s="4"/>
-      <c r="V12" s="4"/>
+      <c r="T12" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W12" s="4" t="s">
         <v>60</v>
       </c>
@@ -5807,8 +5825,9 @@
       <c r="P13" s="2">
         <v>11000</v>
       </c>
-      <c r="U13" s="4"/>
-      <c r="V13" s="4"/>
+      <c r="T13" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W13" s="4" t="s">
         <v>64</v>
       </c>
@@ -5861,8 +5880,9 @@
       <c r="P14" s="2">
         <v>15960</v>
       </c>
-      <c r="U14" s="4"/>
-      <c r="V14" s="4"/>
+      <c r="T14" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W14" s="4" t="s">
         <v>67</v>
       </c>
@@ -5915,8 +5935,9 @@
       <c r="P15" s="2">
         <v>25160</v>
       </c>
-      <c r="U15" s="4"/>
-      <c r="V15" s="4"/>
+      <c r="T15" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W15" s="4" t="s">
         <v>71</v>
       </c>
@@ -5969,8 +5990,9 @@
       <c r="P16" s="2">
         <v>31920</v>
       </c>
-      <c r="U16" s="4"/>
-      <c r="V16" s="4"/>
+      <c r="T16" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W16" s="4" t="s">
         <v>75</v>
       </c>
@@ -6023,8 +6045,9 @@
       <c r="P17" s="2">
         <v>26250</v>
       </c>
-      <c r="U17" s="4"/>
-      <c r="V17" s="4"/>
+      <c r="T17" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W17" s="4" t="s">
         <v>78</v>
       </c>
@@ -6077,8 +6100,9 @@
       <c r="P18" s="2">
         <v>24840</v>
       </c>
-      <c r="U18" s="4"/>
-      <c r="V18" s="4"/>
+      <c r="T18" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W18" s="4" t="s">
         <v>80</v>
       </c>
@@ -6131,8 +6155,9 @@
       <c r="P19" s="2">
         <v>26390</v>
       </c>
-      <c r="U19" s="4"/>
-      <c r="V19" s="4"/>
+      <c r="T19" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W19" s="4" t="s">
         <v>84</v>
       </c>
@@ -6185,8 +6210,9 @@
       <c r="P20" s="2">
         <v>7200</v>
       </c>
-      <c r="U20" s="4"/>
-      <c r="V20" s="4"/>
+      <c r="T20" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W20" s="4" t="s">
         <v>87</v>
       </c>
@@ -6239,8 +6265,9 @@
       <c r="P21" s="2">
         <v>19320</v>
       </c>
-      <c r="U21" s="4"/>
-      <c r="V21" s="4"/>
+      <c r="T21" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W21" s="4" t="s">
         <v>90</v>
       </c>
@@ -6293,8 +6320,9 @@
       <c r="P22" s="2">
         <v>22750</v>
       </c>
-      <c r="U22" s="4"/>
-      <c r="V22" s="4"/>
+      <c r="T22" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W22" s="4" t="s">
         <v>94</v>
       </c>
@@ -6347,8 +6375,9 @@
       <c r="P23" s="2">
         <v>17600</v>
       </c>
-      <c r="U23" s="4"/>
-      <c r="V23" s="4"/>
+      <c r="T23" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W23" s="4" t="s">
         <v>97</v>
       </c>
@@ -6401,8 +6430,9 @@
       <c r="P24" s="2">
         <v>23640</v>
       </c>
-      <c r="U24" s="4"/>
-      <c r="V24" s="4"/>
+      <c r="T24" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W24" s="4" t="s">
         <v>99</v>
       </c>
@@ -6455,8 +6485,9 @@
       <c r="P25" s="2">
         <v>18630</v>
       </c>
-      <c r="U25" s="4"/>
-      <c r="V25" s="4"/>
+      <c r="T25" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W25" s="4" t="s">
         <v>102</v>
       </c>
@@ -6509,8 +6540,9 @@
       <c r="P26" s="2">
         <v>23320</v>
       </c>
-      <c r="U26" s="4"/>
-      <c r="V26" s="4"/>
+      <c r="T26" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W26" s="4" t="s">
         <v>104</v>
       </c>
@@ -6563,8 +6595,9 @@
       <c r="P27" s="2">
         <v>21960</v>
       </c>
-      <c r="U27" s="4"/>
-      <c r="V27" s="4"/>
+      <c r="T27" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W27" s="4" t="s">
         <v>106</v>
       </c>
@@ -6617,8 +6650,9 @@
       <c r="P28" s="2">
         <v>18240</v>
       </c>
-      <c r="U28" s="4"/>
-      <c r="V28" s="4"/>
+      <c r="T28" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W28" s="4" t="s">
         <v>109</v>
       </c>
@@ -6671,8 +6705,9 @@
       <c r="P29" s="2">
         <v>7720</v>
       </c>
-      <c r="U29" s="4"/>
-      <c r="V29" s="4"/>
+      <c r="T29" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W29" s="4" t="s">
         <v>112</v>
       </c>
@@ -6725,8 +6760,9 @@
       <c r="P30" s="2">
         <v>30492</v>
       </c>
-      <c r="U30" s="4"/>
-      <c r="V30" s="4"/>
+      <c r="T30" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W30" s="4" t="s">
         <v>115</v>
       </c>
@@ -6779,8 +6815,9 @@
       <c r="P31" s="2">
         <v>25110</v>
       </c>
-      <c r="U31" s="4"/>
-      <c r="V31" s="4"/>
+      <c r="T31" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W31" s="4" t="s">
         <v>118</v>
       </c>
@@ -6833,8 +6870,9 @@
       <c r="P32" s="2">
         <v>21000</v>
       </c>
-      <c r="U32" s="4"/>
-      <c r="V32" s="4"/>
+      <c r="T32" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W32" s="4" t="s">
         <v>120</v>
       </c>
@@ -6887,8 +6925,9 @@
       <c r="P33" s="2">
         <v>17600</v>
       </c>
-      <c r="U33" s="4"/>
-      <c r="V33" s="4"/>
+      <c r="T33" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W33" s="4" t="s">
         <v>123</v>
       </c>
@@ -6941,8 +6980,9 @@
       <c r="P34" s="2">
         <v>21210</v>
       </c>
-      <c r="U34" s="4"/>
-      <c r="V34" s="4"/>
+      <c r="T34" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W34" s="4" t="s">
         <v>127</v>
       </c>
@@ -6995,8 +7035,9 @@
       <c r="P35" s="2">
         <v>11570</v>
       </c>
-      <c r="U35" s="4"/>
-      <c r="V35" s="4"/>
+      <c r="T35" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W35" s="4" t="s">
         <v>130</v>
       </c>
@@ -7049,8 +7090,9 @@
       <c r="P36" s="2">
         <v>12168</v>
       </c>
-      <c r="U36" s="4"/>
-      <c r="V36" s="4"/>
+      <c r="T36" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W36" s="4" t="s">
         <v>133</v>
       </c>
@@ -7103,8 +7145,9 @@
       <c r="P37" s="2">
         <v>26690</v>
       </c>
-      <c r="U37" s="4"/>
-      <c r="V37" s="4"/>
+      <c r="T37" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W37" s="4" t="s">
         <v>137</v>
       </c>
@@ -7157,8 +7200,9 @@
       <c r="P38" s="2">
         <v>27830</v>
       </c>
-      <c r="U38" s="4"/>
-      <c r="V38" s="4"/>
+      <c r="T38" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W38" s="4" t="s">
         <v>140</v>
       </c>
@@ -7211,8 +7255,9 @@
       <c r="P39" s="2">
         <v>10890</v>
       </c>
-      <c r="U39" s="4"/>
-      <c r="V39" s="4"/>
+      <c r="T39" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W39" s="4" t="s">
         <v>144</v>
       </c>
@@ -7265,8 +7310,9 @@
       <c r="P40" s="2">
         <v>17940</v>
       </c>
-      <c r="U40" s="4"/>
-      <c r="V40" s="4"/>
+      <c r="T40" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W40" s="4" t="s">
         <v>147</v>
       </c>
@@ -7319,8 +7365,9 @@
       <c r="P41" s="2">
         <v>31675</v>
       </c>
-      <c r="U41" s="4"/>
-      <c r="V41" s="4"/>
+      <c r="T41" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W41" s="4" t="s">
         <v>150</v>
       </c>
@@ -7373,8 +7420,9 @@
       <c r="P42" s="2">
         <v>35200</v>
       </c>
-      <c r="U42" s="4"/>
-      <c r="V42" s="4"/>
+      <c r="T42" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W42" s="4" t="s">
         <v>154</v>
       </c>
@@ -7427,8 +7475,9 @@
       <c r="P43" s="2">
         <v>15960</v>
       </c>
-      <c r="U43" s="4"/>
-      <c r="V43" s="4"/>
+      <c r="T43" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W43" s="4" t="s">
         <v>158</v>
       </c>
@@ -7481,8 +7530,9 @@
       <c r="P44" s="2">
         <v>15390</v>
       </c>
-      <c r="U44" s="4"/>
-      <c r="V44" s="4"/>
+      <c r="T44" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W44" s="4" t="s">
         <v>159</v>
       </c>
@@ -7535,8 +7585,9 @@
       <c r="P45" s="2">
         <v>22596</v>
       </c>
-      <c r="U45" s="4"/>
-      <c r="V45" s="4"/>
+      <c r="T45" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W45" s="4" t="s">
         <v>162</v>
       </c>
@@ -7589,8 +7640,9 @@
       <c r="P46" s="2">
         <v>8520</v>
       </c>
-      <c r="U46" s="4"/>
-      <c r="V46" s="4"/>
+      <c r="T46" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W46" s="4" t="s">
         <v>166</v>
       </c>
@@ -7643,8 +7695,9 @@
       <c r="P47" s="2">
         <v>12544</v>
       </c>
-      <c r="U47" s="4"/>
-      <c r="V47" s="4"/>
+      <c r="T47" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W47" s="4" t="s">
         <v>170</v>
       </c>
@@ -7697,8 +7750,9 @@
       <c r="P48" s="2">
         <v>13600</v>
       </c>
-      <c r="U48" s="4"/>
-      <c r="V48" s="4"/>
+      <c r="T48" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W48" s="4" t="s">
         <v>173</v>
       </c>
@@ -7751,8 +7805,9 @@
       <c r="P49" s="2">
         <v>11844</v>
       </c>
-      <c r="U49" s="4"/>
-      <c r="V49" s="4"/>
+      <c r="T49" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W49" s="4" t="s">
         <v>176</v>
       </c>
@@ -7805,8 +7860,9 @@
       <c r="P50" s="2">
         <v>20250</v>
       </c>
-      <c r="U50" s="4"/>
-      <c r="V50" s="4"/>
+      <c r="T50" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W50" s="4" t="s">
         <v>179</v>
       </c>
@@ -7859,8 +7915,9 @@
       <c r="P51" s="2">
         <v>11640</v>
       </c>
-      <c r="U51" s="4"/>
-      <c r="V51" s="4"/>
+      <c r="T51" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W51" s="4" t="s">
         <v>182</v>
       </c>
@@ -7913,8 +7970,9 @@
       <c r="P52" s="2">
         <v>22000</v>
       </c>
-      <c r="U52" s="4"/>
-      <c r="V52" s="4"/>
+      <c r="T52" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W52" s="4" t="s">
         <v>185</v>
       </c>
@@ -7967,8 +8025,9 @@
       <c r="P53" s="2">
         <v>25740</v>
       </c>
-      <c r="U53" s="4"/>
-      <c r="V53" s="4"/>
+      <c r="T53" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W53" s="4" t="s">
         <v>189</v>
       </c>
@@ -8021,8 +8080,9 @@
       <c r="P54" s="2">
         <v>11570</v>
       </c>
-      <c r="U54" s="4"/>
-      <c r="V54" s="4"/>
+      <c r="T54" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W54" s="4" t="s">
         <v>192</v>
       </c>
@@ -8075,8 +8135,9 @@
       <c r="P55" s="2">
         <v>19396</v>
       </c>
-      <c r="U55" s="4"/>
-      <c r="V55" s="4"/>
+      <c r="T55" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W55" s="4" t="s">
         <v>194</v>
       </c>
@@ -8129,8 +8190,9 @@
       <c r="P56" s="2">
         <v>14256</v>
       </c>
-      <c r="U56" s="4"/>
-      <c r="V56" s="4"/>
+      <c r="T56" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W56" s="4" t="s">
         <v>197</v>
       </c>
@@ -8183,8 +8245,9 @@
       <c r="P57" s="2">
         <v>37925</v>
       </c>
-      <c r="U57" s="4"/>
-      <c r="V57" s="4"/>
+      <c r="T57" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W57" s="4" t="s">
         <v>200</v>
       </c>
@@ -8237,8 +8300,9 @@
       <c r="P58" s="2">
         <v>13860</v>
       </c>
-      <c r="U58" s="4"/>
-      <c r="V58" s="4"/>
+      <c r="T58" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W58" s="4" t="s">
         <v>203</v>
       </c>
@@ -8291,8 +8355,9 @@
       <c r="P59" s="2">
         <v>23360</v>
       </c>
-      <c r="U59" s="4"/>
-      <c r="V59" s="4"/>
+      <c r="T59" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W59" s="4" t="s">
         <v>206</v>
       </c>
@@ -8345,8 +8410,9 @@
       <c r="P60" s="2">
         <v>24420</v>
       </c>
-      <c r="U60" s="4"/>
-      <c r="V60" s="4"/>
+      <c r="T60" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W60" s="4" t="s">
         <v>209</v>
       </c>
@@ -8399,8 +8465,9 @@
       <c r="P61" s="2">
         <v>20750</v>
       </c>
-      <c r="U61" s="4"/>
-      <c r="V61" s="4"/>
+      <c r="T61" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W61" s="4" t="s">
         <v>212</v>
       </c>
@@ -8453,8 +8520,9 @@
       <c r="P62" s="2">
         <v>32130</v>
       </c>
-      <c r="U62" s="4"/>
-      <c r="V62" s="4"/>
+      <c r="T62" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W62" s="4" t="s">
         <v>214</v>
       </c>
@@ -8507,8 +8575,9 @@
       <c r="P63" s="2">
         <v>16380</v>
       </c>
-      <c r="U63" s="4"/>
-      <c r="V63" s="4"/>
+      <c r="T63" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W63" s="4" t="s">
         <v>217</v>
       </c>
@@ -8561,8 +8630,9 @@
       <c r="P64" s="2">
         <v>45290</v>
       </c>
-      <c r="U64" s="4"/>
-      <c r="V64" s="4"/>
+      <c r="T64" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W64" s="4" t="s">
         <v>220</v>
       </c>
@@ -8615,8 +8685,9 @@
       <c r="P65" s="2">
         <v>21560</v>
       </c>
-      <c r="U65" s="4"/>
-      <c r="V65" s="4"/>
+      <c r="T65" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W65" s="4" t="s">
         <v>223</v>
       </c>
@@ -8669,8 +8740,9 @@
       <c r="P66" s="2">
         <v>18740</v>
       </c>
-      <c r="U66" s="4"/>
-      <c r="V66" s="4"/>
+      <c r="T66" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W66" s="4" t="s">
         <v>225</v>
       </c>
@@ -8723,8 +8795,9 @@
       <c r="P67" s="2">
         <v>10318</v>
       </c>
-      <c r="U67" s="4"/>
-      <c r="V67" s="4"/>
+      <c r="T67" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W67" s="4" t="s">
         <v>228</v>
       </c>
@@ -8777,8 +8850,9 @@
       <c r="P68" s="2">
         <v>15760</v>
       </c>
-      <c r="U68" s="4"/>
-      <c r="V68" s="4"/>
+      <c r="T68" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W68" s="4" t="s">
         <v>231</v>
       </c>
@@ -8831,8 +8905,9 @@
       <c r="P69" s="2">
         <v>27720</v>
       </c>
-      <c r="U69" s="4"/>
-      <c r="V69" s="4"/>
+      <c r="T69" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W69" s="4" t="s">
         <v>233</v>
       </c>
@@ -8885,8 +8960,9 @@
       <c r="P70" s="2">
         <v>21060</v>
       </c>
-      <c r="U70" s="4"/>
-      <c r="V70" s="4"/>
+      <c r="T70" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W70" s="4" t="s">
         <v>236</v>
       </c>
@@ -8939,8 +9015,9 @@
       <c r="P71" s="2">
         <v>37440</v>
       </c>
-      <c r="U71" s="4"/>
-      <c r="V71" s="4"/>
+      <c r="T71" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W71" s="4" t="s">
         <v>239</v>
       </c>
@@ -8993,8 +9070,9 @@
       <c r="P72" s="2">
         <v>18880</v>
       </c>
-      <c r="U72" s="4"/>
-      <c r="V72" s="4"/>
+      <c r="T72" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W72" s="4" t="s">
         <v>242</v>
       </c>
@@ -9047,8 +9125,9 @@
       <c r="P73" s="2">
         <v>26040</v>
       </c>
-      <c r="U73" s="4"/>
-      <c r="V73" s="4"/>
+      <c r="T73" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W73" s="4" t="s">
         <v>246</v>
       </c>
@@ -9101,8 +9180,9 @@
       <c r="P74" s="2">
         <v>24000</v>
       </c>
-      <c r="U74" s="4"/>
-      <c r="V74" s="4"/>
+      <c r="T74" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W74" s="4" t="s">
         <v>249</v>
       </c>
@@ -9155,8 +9235,9 @@
       <c r="P75" s="2">
         <v>15865</v>
       </c>
-      <c r="U75" s="4"/>
-      <c r="V75" s="4"/>
+      <c r="T75" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W75" s="4" t="s">
         <v>252</v>
       </c>
@@ -9209,8 +9290,9 @@
       <c r="P76" s="2">
         <v>17400</v>
       </c>
-      <c r="U76" s="4"/>
-      <c r="V76" s="4"/>
+      <c r="T76" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W76" s="4" t="s">
         <v>255</v>
       </c>
@@ -9263,8 +9345,9 @@
       <c r="P77" s="2">
         <v>23750</v>
       </c>
-      <c r="U77" s="4"/>
-      <c r="V77" s="4"/>
+      <c r="T77" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W77" s="4" t="s">
         <v>258</v>
       </c>
@@ -9317,8 +9400,9 @@
       <c r="P78" s="2">
         <v>24087</v>
       </c>
-      <c r="U78" s="4"/>
-      <c r="V78" s="4"/>
+      <c r="T78" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W78" s="4" t="s">
         <v>261</v>
       </c>
@@ -9371,8 +9455,9 @@
       <c r="P79" s="2">
         <v>28840</v>
       </c>
-      <c r="U79" s="4"/>
-      <c r="V79" s="4"/>
+      <c r="T79" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W79" s="4" t="s">
         <v>264</v>
       </c>
@@ -9425,8 +9510,9 @@
       <c r="P80" s="2">
         <v>21120</v>
       </c>
-      <c r="U80" s="4"/>
-      <c r="V80" s="4"/>
+      <c r="T80" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W80" s="4" t="s">
         <v>266</v>
       </c>
@@ -9479,8 +9565,9 @@
       <c r="P81" s="2">
         <v>23925</v>
       </c>
-      <c r="U81" s="4"/>
-      <c r="V81" s="4"/>
+      <c r="T81" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W81" s="4" t="s">
         <v>269</v>
       </c>
@@ -9533,8 +9620,9 @@
       <c r="P82" s="2">
         <v>22320</v>
       </c>
-      <c r="U82" s="4"/>
-      <c r="V82" s="4"/>
+      <c r="T82" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W82" s="4" t="s">
         <v>272</v>
       </c>
@@ -9587,8 +9675,9 @@
       <c r="P83" s="2">
         <v>24250</v>
       </c>
-      <c r="U83" s="4"/>
-      <c r="V83" s="4"/>
+      <c r="T83" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W83" s="4" t="s">
         <v>275</v>
       </c>
@@ -9641,8 +9730,9 @@
       <c r="P84" s="2">
         <v>16640</v>
       </c>
-      <c r="U84" s="4"/>
-      <c r="V84" s="4"/>
+      <c r="T84" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W84" s="4" t="s">
         <v>278</v>
       </c>
@@ -9695,8 +9785,9 @@
       <c r="P85" s="2">
         <v>26700</v>
       </c>
-      <c r="U85" s="4"/>
-      <c r="V85" s="4"/>
+      <c r="T85" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W85" s="4" t="s">
         <v>281</v>
       </c>
@@ -9749,8 +9840,9 @@
       <c r="P86" s="2">
         <v>22100</v>
       </c>
-      <c r="U86" s="4"/>
-      <c r="V86" s="4"/>
+      <c r="T86" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W86" s="4" t="s">
         <v>285</v>
       </c>
@@ -9803,8 +9895,9 @@
       <c r="P87" s="2">
         <v>31320</v>
       </c>
-      <c r="U87" s="4"/>
-      <c r="V87" s="4"/>
+      <c r="T87" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W87" s="4" t="s">
         <v>288</v>
       </c>
@@ -9857,8 +9950,9 @@
       <c r="P88" s="2">
         <v>15720</v>
       </c>
-      <c r="U88" s="4"/>
-      <c r="V88" s="4"/>
+      <c r="T88" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W88" s="4" t="s">
         <v>291</v>
       </c>
@@ -9911,8 +10005,9 @@
       <c r="P89" s="2">
         <v>22000</v>
       </c>
-      <c r="U89" s="4"/>
-      <c r="V89" s="4"/>
+      <c r="T89" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W89" s="4" t="s">
         <v>295</v>
       </c>
@@ -9965,8 +10060,9 @@
       <c r="P90" s="2">
         <v>16032</v>
       </c>
-      <c r="U90" s="4"/>
-      <c r="V90" s="4"/>
+      <c r="T90" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W90" s="4" t="s">
         <v>298</v>
       </c>
@@ -10019,8 +10115,9 @@
       <c r="P91" s="2">
         <v>17170</v>
       </c>
-      <c r="U91" s="4"/>
-      <c r="V91" s="4"/>
+      <c r="T91" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W91" s="4" t="s">
         <v>301</v>
       </c>
@@ -10073,8 +10170,9 @@
       <c r="P92" s="2">
         <v>20960</v>
       </c>
-      <c r="U92" s="4"/>
-      <c r="V92" s="4"/>
+      <c r="T92" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W92" s="4" t="s">
         <v>304</v>
       </c>
@@ -10127,8 +10225,9 @@
       <c r="P93" s="2">
         <v>16445</v>
       </c>
-      <c r="U93" s="4"/>
-      <c r="V93" s="4"/>
+      <c r="T93" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W93" s="4" t="s">
         <v>308</v>
       </c>
@@ -10181,8 +10280,9 @@
       <c r="P94" s="2">
         <v>11066</v>
       </c>
-      <c r="U94" s="4"/>
-      <c r="V94" s="4"/>
+      <c r="T94" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W94" s="4" t="s">
         <v>311</v>
       </c>
@@ -10235,8 +10335,9 @@
       <c r="P95" s="2">
         <v>21620</v>
       </c>
-      <c r="U95" s="4"/>
-      <c r="V95" s="4"/>
+      <c r="T95" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W95" s="4" t="s">
         <v>314</v>
       </c>
@@ -10289,8 +10390,9 @@
       <c r="P96" s="2">
         <v>14025</v>
       </c>
-      <c r="U96" s="4"/>
-      <c r="V96" s="4"/>
+      <c r="T96" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W96" s="4" t="s">
         <v>317</v>
       </c>
@@ -10343,8 +10445,9 @@
       <c r="P97" s="2">
         <v>21210</v>
       </c>
-      <c r="U97" s="4"/>
-      <c r="V97" s="4"/>
+      <c r="T97" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W97" s="4" t="s">
         <v>321</v>
       </c>
@@ -10393,8 +10496,9 @@
       <c r="P98" s="2">
         <v>13640</v>
       </c>
-      <c r="U98" s="4"/>
-      <c r="V98" s="4"/>
+      <c r="T98" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W98" s="4" t="s">
         <v>323</v>
       </c>
@@ -10447,8 +10551,9 @@
       <c r="P99" s="2">
         <v>14953</v>
       </c>
-      <c r="U99" s="4"/>
-      <c r="V99" s="4"/>
+      <c r="T99" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W99" s="4" t="s">
         <v>327</v>
       </c>
@@ -10501,8 +10606,9 @@
       <c r="P100" s="2">
         <v>37000</v>
       </c>
-      <c r="U100" s="4"/>
-      <c r="V100" s="4"/>
+      <c r="T100" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W100" s="4" t="s">
         <v>330</v>
       </c>
@@ -10555,8 +10661,9 @@
       <c r="P101" s="2">
         <v>35208</v>
       </c>
-      <c r="U101" s="4"/>
-      <c r="V101" s="4"/>
+      <c r="T101" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W101" s="4" t="s">
         <v>333</v>
       </c>
@@ -10609,8 +10716,9 @@
       <c r="P102" s="2">
         <v>26432</v>
       </c>
-      <c r="U102" s="4"/>
-      <c r="V102" s="4"/>
+      <c r="T102" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W102" s="4" t="s">
         <v>336</v>
       </c>
@@ -10663,8 +10771,9 @@
       <c r="P103" s="2">
         <v>14820</v>
       </c>
-      <c r="U103" s="4"/>
-      <c r="V103" s="4"/>
+      <c r="T103" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W103" s="4" t="s">
         <v>339</v>
       </c>
@@ -10717,8 +10826,9 @@
       <c r="P104" s="2">
         <v>19000</v>
       </c>
-      <c r="U104" s="4"/>
-      <c r="V104" s="4"/>
+      <c r="T104" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W104" s="4" t="s">
         <v>342</v>
       </c>
@@ -10771,8 +10881,9 @@
       <c r="P105" s="2">
         <v>29664</v>
       </c>
-      <c r="U105" s="4"/>
-      <c r="V105" s="4"/>
+      <c r="T105" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W105" s="4" t="s">
         <v>344</v>
       </c>
@@ -10825,8 +10936,9 @@
       <c r="P106" s="2">
         <v>18430</v>
       </c>
-      <c r="U106" s="4"/>
-      <c r="V106" s="4"/>
+      <c r="T106" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W106" s="4" t="s">
         <v>347</v>
       </c>
@@ -10879,8 +10991,9 @@
       <c r="P107" s="2">
         <v>16340</v>
       </c>
-      <c r="U107" s="4"/>
-      <c r="V107" s="4"/>
+      <c r="T107" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W107" s="4" t="s">
         <v>350</v>
       </c>
@@ -10933,8 +11046,9 @@
       <c r="P108" s="2">
         <v>22050</v>
       </c>
-      <c r="U108" s="4"/>
-      <c r="V108" s="4"/>
+      <c r="T108" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W108" s="4" t="s">
         <v>354</v>
       </c>
@@ -10987,8 +11101,9 @@
       <c r="P109" s="2">
         <v>18543</v>
       </c>
-      <c r="U109" s="4"/>
-      <c r="V109" s="4"/>
+      <c r="T109" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W109" s="4" t="s">
         <v>357</v>
       </c>
@@ -11041,8 +11156,9 @@
       <c r="P110" s="2">
         <v>33300</v>
       </c>
-      <c r="U110" s="4"/>
-      <c r="V110" s="4"/>
+      <c r="T110" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W110" s="4" t="s">
         <v>360</v>
       </c>
@@ -11095,8 +11211,9 @@
       <c r="P111" s="2">
         <v>32850</v>
       </c>
-      <c r="U111" s="4"/>
-      <c r="V111" s="4"/>
+      <c r="T111" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W111" s="4" t="s">
         <v>363</v>
       </c>
@@ -11149,8 +11266,9 @@
       <c r="P112" s="2">
         <v>19895</v>
       </c>
-      <c r="U112" s="4"/>
-      <c r="V112" s="4"/>
+      <c r="T112" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W112" s="4" t="s">
         <v>366</v>
       </c>
@@ -11203,8 +11321,9 @@
       <c r="P113" s="2">
         <v>19800</v>
       </c>
-      <c r="U113" s="4"/>
-      <c r="V113" s="4"/>
+      <c r="T113" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W113" s="4" t="s">
         <v>369</v>
       </c>
@@ -11257,8 +11376,9 @@
       <c r="P114" s="2">
         <v>26850</v>
       </c>
-      <c r="U114" s="4"/>
-      <c r="V114" s="4"/>
+      <c r="T114" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W114" s="4" t="s">
         <v>372</v>
       </c>
@@ -11311,8 +11431,9 @@
       <c r="P115" s="2">
         <v>21756</v>
       </c>
-      <c r="U115" s="4"/>
-      <c r="V115" s="4"/>
+      <c r="T115" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W115" s="4" t="s">
         <v>375</v>
       </c>
@@ -11365,8 +11486,9 @@
       <c r="P116" s="2">
         <v>19190</v>
       </c>
-      <c r="U116" s="4"/>
-      <c r="V116" s="4"/>
+      <c r="T116" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W116" s="4" t="s">
         <v>377</v>
       </c>
@@ -11419,8 +11541,9 @@
       <c r="P117" s="2">
         <v>21105</v>
       </c>
-      <c r="U117" s="4"/>
-      <c r="V117" s="4"/>
+      <c r="T117" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W117" s="4" t="s">
         <v>380</v>
       </c>
@@ -11473,8 +11596,9 @@
       <c r="P118" s="2">
         <v>37310</v>
       </c>
-      <c r="U118" s="4"/>
-      <c r="V118" s="4"/>
+      <c r="T118" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W118" s="4" t="s">
         <v>383</v>
       </c>
@@ -11527,8 +11651,9 @@
       <c r="P119" s="2">
         <v>24215</v>
       </c>
-      <c r="U119" s="4"/>
-      <c r="V119" s="4"/>
+      <c r="T119" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W119" s="4" t="s">
         <v>386</v>
       </c>
@@ -11581,8 +11706,9 @@
       <c r="P120" s="2">
         <v>33813</v>
       </c>
-      <c r="U120" s="4"/>
-      <c r="V120" s="4"/>
+      <c r="T120" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W120" s="4" t="s">
         <v>389</v>
       </c>
@@ -11635,8 +11761,9 @@
       <c r="P121" s="2">
         <v>4200</v>
       </c>
-      <c r="U121" s="4"/>
-      <c r="V121" s="4"/>
+      <c r="T121" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W121" s="4" t="s">
         <v>392</v>
       </c>
@@ -11689,8 +11816,9 @@
       <c r="P122" s="2">
         <v>3900</v>
       </c>
-      <c r="U122" s="4"/>
-      <c r="V122" s="4"/>
+      <c r="T122" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W122" s="4" t="s">
         <v>395</v>
       </c>
@@ -11743,8 +11871,9 @@
       <c r="P123" s="2">
         <v>17100</v>
       </c>
-      <c r="U123" s="4"/>
-      <c r="V123" s="4"/>
+      <c r="T123" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W123" s="4" t="s">
         <v>398</v>
       </c>
@@ -11797,8 +11926,9 @@
       <c r="P124" s="2">
         <v>27400</v>
       </c>
-      <c r="U124" s="4"/>
-      <c r="V124" s="4"/>
+      <c r="T124" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W124" s="4" t="s">
         <v>401</v>
       </c>
@@ -11851,8 +11981,9 @@
       <c r="P125" s="2">
         <v>8820</v>
       </c>
-      <c r="U125" s="4"/>
-      <c r="V125" s="4"/>
+      <c r="T125" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W125" s="4" t="s">
         <v>404</v>
       </c>
@@ -11905,8 +12036,9 @@
       <c r="P126" s="2">
         <v>12470</v>
       </c>
-      <c r="U126" s="4"/>
-      <c r="V126" s="4"/>
+      <c r="T126" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W126" s="4" t="s">
         <v>407</v>
       </c>
@@ -11959,8 +12091,9 @@
       <c r="P127" s="2">
         <v>29440</v>
       </c>
-      <c r="U127" s="4"/>
-      <c r="V127" s="4"/>
+      <c r="T127" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W127" s="4" t="s">
         <v>410</v>
       </c>
@@ -12013,8 +12146,9 @@
       <c r="P128" s="2">
         <v>19220</v>
       </c>
-      <c r="U128" s="4"/>
-      <c r="V128" s="4"/>
+      <c r="T128" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W128" s="4" t="s">
         <v>412</v>
       </c>
@@ -12067,8 +12201,9 @@
       <c r="P129" s="2">
         <v>10440</v>
       </c>
-      <c r="U129" s="4"/>
-      <c r="V129" s="4"/>
+      <c r="T129" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W129" s="4" t="s">
         <v>414</v>
       </c>
@@ -12121,8 +12256,9 @@
       <c r="P130" s="2">
         <v>18048</v>
       </c>
-      <c r="U130" s="4"/>
-      <c r="V130" s="4"/>
+      <c r="T130" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W130" s="4" t="s">
         <v>417</v>
       </c>
@@ -12175,8 +12311,9 @@
       <c r="P131" s="2">
         <v>11235</v>
       </c>
-      <c r="U131" s="4"/>
-      <c r="V131" s="4"/>
+      <c r="T131" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W131" s="4" t="s">
         <v>420</v>
       </c>
@@ -12229,8 +12366,9 @@
       <c r="P132" s="2">
         <v>15400</v>
       </c>
-      <c r="U132" s="4"/>
-      <c r="V132" s="4"/>
+      <c r="T132" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W132" s="4" t="s">
         <v>423</v>
       </c>
@@ -12283,8 +12421,9 @@
       <c r="P133" s="2">
         <v>16790</v>
       </c>
-      <c r="U133" s="4"/>
-      <c r="V133" s="4"/>
+      <c r="T133" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W133" s="4" t="s">
         <v>426</v>
       </c>
@@ -12337,8 +12476,9 @@
       <c r="P134" s="2">
         <v>11610</v>
       </c>
-      <c r="U134" s="4"/>
-      <c r="V134" s="4"/>
+      <c r="T134" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W134" s="4" t="s">
         <v>429</v>
       </c>
@@ -12391,8 +12531,9 @@
       <c r="P135" s="2">
         <v>2160</v>
       </c>
-      <c r="U135" s="4"/>
-      <c r="V135" s="4"/>
+      <c r="T135" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W135" s="4" t="s">
         <v>432</v>
       </c>
@@ -12445,8 +12586,9 @@
       <c r="P136" s="2">
         <v>26280</v>
       </c>
-      <c r="U136" s="4"/>
-      <c r="V136" s="4"/>
+      <c r="T136" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W136" s="4" t="s">
         <v>435</v>
       </c>
@@ -12499,8 +12641,9 @@
       <c r="P137" s="2">
         <v>23120</v>
       </c>
-      <c r="U137" s="4"/>
-      <c r="V137" s="4"/>
+      <c r="T137" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W137" s="4" t="s">
         <v>438</v>
       </c>
@@ -12553,8 +12696,9 @@
       <c r="P138" s="2">
         <v>25080</v>
       </c>
-      <c r="U138" s="4"/>
-      <c r="V138" s="4"/>
+      <c r="T138" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W138" s="4" t="s">
         <v>441</v>
       </c>
@@ -12607,8 +12751,9 @@
       <c r="P139" s="2">
         <v>23100</v>
       </c>
-      <c r="U139" s="4"/>
-      <c r="V139" s="4"/>
+      <c r="T139" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W139" s="4" t="s">
         <v>444</v>
       </c>
@@ -12661,8 +12806,9 @@
       <c r="P140" s="2">
         <v>19800</v>
       </c>
-      <c r="U140" s="4"/>
-      <c r="V140" s="4"/>
+      <c r="T140" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W140" s="4" t="s">
         <v>447</v>
       </c>
@@ -12715,8 +12861,9 @@
       <c r="P141" s="2">
         <v>12100</v>
       </c>
-      <c r="U141" s="4"/>
-      <c r="V141" s="4"/>
+      <c r="T141" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W141" s="4" t="s">
         <v>450</v>
       </c>
@@ -12769,8 +12916,9 @@
       <c r="P142" s="2">
         <v>11200</v>
       </c>
-      <c r="U142" s="4"/>
-      <c r="V142" s="4"/>
+      <c r="T142" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W142" s="4" t="s">
         <v>453</v>
       </c>
@@ -12823,8 +12971,9 @@
       <c r="P143" s="2">
         <v>10040</v>
       </c>
-      <c r="U143" s="4"/>
-      <c r="V143" s="4"/>
+      <c r="T143" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W143" s="4" t="s">
         <v>456</v>
       </c>
@@ -12877,8 +13026,9 @@
       <c r="P144" s="2">
         <v>12750</v>
       </c>
-      <c r="U144" s="4"/>
-      <c r="V144" s="4"/>
+      <c r="T144" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W144" s="4" t="s">
         <v>459</v>
       </c>
@@ -12931,8 +13081,9 @@
       <c r="P145" s="2">
         <v>11220</v>
       </c>
-      <c r="U145" s="4"/>
-      <c r="V145" s="4"/>
+      <c r="T145" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W145" s="4" t="s">
         <v>462</v>
       </c>
@@ -12985,8 +13136,9 @@
       <c r="P146" s="2">
         <v>6000</v>
       </c>
-      <c r="U146" s="4"/>
-      <c r="V146" s="4"/>
+      <c r="T146" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W146" s="4" t="s">
         <v>465</v>
       </c>
@@ -13039,8 +13191,9 @@
       <c r="P147" s="2">
         <v>23165</v>
       </c>
-      <c r="U147" s="4"/>
-      <c r="V147" s="4"/>
+      <c r="T147" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W147" s="4" t="s">
         <v>468</v>
       </c>
@@ -13093,8 +13246,9 @@
       <c r="P148" s="2">
         <v>13950</v>
       </c>
-      <c r="U148" s="4"/>
-      <c r="V148" s="4"/>
+      <c r="T148" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W148" s="4" t="s">
         <v>471</v>
       </c>
@@ -13147,8 +13301,9 @@
       <c r="P149" s="2">
         <v>8750</v>
       </c>
-      <c r="U149" s="4"/>
-      <c r="V149" s="4"/>
+      <c r="T149" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W149" s="4" t="s">
         <v>474</v>
       </c>
@@ -13201,8 +13356,9 @@
       <c r="P150" s="2">
         <v>35200</v>
       </c>
-      <c r="U150" s="4"/>
-      <c r="V150" s="4"/>
+      <c r="T150" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W150" s="4" t="s">
         <v>477</v>
       </c>
@@ -13255,8 +13411,9 @@
       <c r="P151" s="2">
         <v>14080</v>
       </c>
-      <c r="U151" s="4"/>
-      <c r="V151" s="4"/>
+      <c r="T151" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W151" s="4" t="s">
         <v>479</v>
       </c>
@@ -13309,8 +13466,9 @@
       <c r="P152" s="2">
         <v>25040</v>
       </c>
-      <c r="U152" s="4"/>
-      <c r="V152" s="4"/>
+      <c r="T152" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W152" s="4" t="s">
         <v>482</v>
       </c>
@@ -13363,8 +13521,9 @@
       <c r="P153" s="2">
         <v>5100</v>
       </c>
-      <c r="U153" s="4"/>
-      <c r="V153" s="4"/>
+      <c r="T153" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W153" s="4" t="s">
         <v>485</v>
       </c>
@@ -13417,8 +13576,9 @@
       <c r="P154" s="2">
         <v>14300</v>
       </c>
-      <c r="U154" s="4"/>
-      <c r="V154" s="4"/>
+      <c r="T154" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W154" s="4" t="s">
         <v>488</v>
       </c>
@@ -13467,8 +13627,9 @@
       <c r="P155" s="2">
         <v>11700</v>
       </c>
-      <c r="U155" s="4"/>
-      <c r="V155" s="4"/>
+      <c r="T155" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W155" s="4" t="s">
         <v>491</v>
       </c>
@@ -13521,8 +13682,9 @@
       <c r="P156" s="2">
         <v>18630</v>
       </c>
-      <c r="U156" s="4"/>
-      <c r="V156" s="4"/>
+      <c r="T156" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W156" s="4" t="s">
         <v>494</v>
       </c>
@@ -13575,8 +13737,9 @@
       <c r="P157" s="2">
         <v>32400</v>
       </c>
-      <c r="U157" s="4"/>
-      <c r="V157" s="4"/>
+      <c r="T157" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W157" s="4" t="s">
         <v>496</v>
       </c>
@@ -13629,8 +13792,9 @@
       <c r="P158" s="2">
         <v>14280</v>
       </c>
-      <c r="U158" s="4"/>
-      <c r="V158" s="4"/>
+      <c r="T158" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W158" s="4" t="s">
         <v>499</v>
       </c>
@@ -13683,8 +13847,9 @@
       <c r="P159" s="2">
         <v>13750</v>
       </c>
-      <c r="U159" s="4"/>
-      <c r="V159" s="4"/>
+      <c r="T159" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W159" s="4" t="s">
         <v>502</v>
       </c>
@@ -13737,8 +13902,9 @@
       <c r="P160" s="2">
         <v>17595</v>
       </c>
-      <c r="U160" s="4"/>
-      <c r="V160" s="4"/>
+      <c r="T160" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W160" s="4" t="s">
         <v>504</v>
       </c>
@@ -13791,8 +13957,9 @@
       <c r="P161" s="2">
         <v>52470</v>
       </c>
-      <c r="U161" s="4"/>
-      <c r="V161" s="4"/>
+      <c r="T161" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W161" s="4" t="s">
         <v>507</v>
       </c>
@@ -13845,8 +14012,9 @@
       <c r="P162" s="2">
         <v>26128</v>
       </c>
-      <c r="U162" s="4"/>
-      <c r="V162" s="4"/>
+      <c r="T162" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W162" s="4" t="s">
         <v>510</v>
       </c>
@@ -13899,8 +14067,9 @@
       <c r="P163" s="2">
         <v>6624</v>
       </c>
-      <c r="U163" s="4"/>
-      <c r="V163" s="4"/>
+      <c r="T163" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W163" s="4" t="s">
         <v>513</v>
       </c>
@@ -13953,8 +14122,9 @@
       <c r="P164" s="2">
         <v>36972</v>
       </c>
-      <c r="U164" s="4"/>
-      <c r="V164" s="4"/>
+      <c r="T164" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W164" s="4" t="s">
         <v>517</v>
       </c>
@@ -14007,8 +14177,9 @@
       <c r="P165" s="2">
         <v>3210</v>
       </c>
-      <c r="U165" s="4"/>
-      <c r="V165" s="4"/>
+      <c r="T165" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W165" s="4" t="s">
         <v>520</v>
       </c>
@@ -14061,8 +14232,9 @@
       <c r="P166" s="2">
         <v>7008</v>
       </c>
-      <c r="U166" s="4"/>
-      <c r="V166" s="4"/>
+      <c r="T166" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W166" s="4" t="s">
         <v>524</v>
       </c>
@@ -14115,8 +14287,9 @@
       <c r="P167" s="2">
         <v>9880</v>
       </c>
-      <c r="U167" s="4"/>
-      <c r="V167" s="4"/>
+      <c r="T167" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W167" s="4" t="s">
         <v>527</v>
       </c>
@@ -14169,8 +14342,9 @@
       <c r="P168" s="2">
         <v>11522</v>
       </c>
-      <c r="U168" s="4"/>
-      <c r="V168" s="4"/>
+      <c r="T168" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W168" s="4" t="s">
         <v>530</v>
       </c>
@@ -14223,8 +14397,9 @@
       <c r="P169" s="2">
         <v>11900</v>
       </c>
-      <c r="U169" s="4"/>
-      <c r="V169" s="4"/>
+      <c r="T169" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W169" s="4" t="s">
         <v>533</v>
       </c>
@@ -14277,8 +14452,9 @@
       <c r="P170" s="2">
         <v>8480</v>
       </c>
-      <c r="U170" s="4"/>
-      <c r="V170" s="4"/>
+      <c r="T170" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W170" s="4" t="s">
         <v>536</v>
       </c>
@@ -14331,8 +14507,9 @@
       <c r="P171" s="2">
         <v>29810</v>
       </c>
-      <c r="U171" s="4"/>
-      <c r="V171" s="4"/>
+      <c r="T171" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W171" s="4" t="s">
         <v>539</v>
       </c>
@@ -14385,8 +14562,9 @@
       <c r="P172" s="2">
         <v>22560</v>
       </c>
-      <c r="U172" s="4"/>
-      <c r="V172" s="4"/>
+      <c r="T172" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W172" s="4" t="s">
         <v>542</v>
       </c>
@@ -14439,8 +14617,9 @@
       <c r="P173" s="2">
         <v>5705</v>
       </c>
-      <c r="U173" s="4"/>
-      <c r="V173" s="4"/>
+      <c r="T173" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W173" s="4" t="s">
         <v>545</v>
       </c>
@@ -14493,8 +14672,9 @@
       <c r="P174" s="2">
         <v>17900</v>
       </c>
-      <c r="U174" s="4"/>
-      <c r="V174" s="4"/>
+      <c r="T174" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W174" s="4" t="s">
         <v>548</v>
       </c>
@@ -14543,8 +14723,9 @@
       <c r="P175" s="2">
         <v>16060</v>
       </c>
-      <c r="U175" s="4"/>
-      <c r="V175" s="4"/>
+      <c r="T175" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W175" s="4" t="s">
         <v>551</v>
       </c>
@@ -14597,8 +14778,9 @@
       <c r="P176" s="2">
         <v>12336</v>
       </c>
-      <c r="U176" s="4"/>
-      <c r="V176" s="4"/>
+      <c r="T176" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W176" s="4" t="s">
         <v>554</v>
       </c>
@@ -14651,8 +14833,9 @@
       <c r="P177" s="2">
         <v>12975</v>
       </c>
-      <c r="U177" s="4"/>
-      <c r="V177" s="4"/>
+      <c r="T177" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W177" s="4" t="s">
         <v>557</v>
       </c>
@@ -14705,8 +14888,9 @@
       <c r="P178" s="2">
         <v>11344</v>
       </c>
-      <c r="U178" s="4"/>
-      <c r="V178" s="4"/>
+      <c r="T178" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W178" s="4" t="s">
         <v>560</v>
       </c>
@@ -14759,8 +14943,9 @@
       <c r="P179" s="2">
         <v>7880</v>
       </c>
-      <c r="U179" s="4"/>
-      <c r="V179" s="4"/>
+      <c r="T179" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W179" s="4" t="s">
         <v>563</v>
       </c>
@@ -14813,8 +14998,9 @@
       <c r="P180" s="2">
         <v>15540</v>
       </c>
-      <c r="U180" s="4"/>
-      <c r="V180" s="4"/>
+      <c r="T180" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W180" s="4" t="s">
         <v>567</v>
       </c>
@@ -14867,8 +15053,9 @@
       <c r="P181" s="2">
         <v>28770</v>
       </c>
-      <c r="U181" s="4"/>
-      <c r="V181" s="4"/>
+      <c r="T181" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W181" s="4" t="s">
         <v>570</v>
       </c>
@@ -14921,8 +15108,9 @@
       <c r="P182" s="2">
         <v>8855</v>
       </c>
-      <c r="U182" s="4"/>
-      <c r="V182" s="4"/>
+      <c r="T182" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W182" s="4" t="s">
         <v>573</v>
       </c>
@@ -14975,8 +15163,9 @@
       <c r="P183" s="2">
         <v>19800</v>
       </c>
-      <c r="U183" s="4"/>
-      <c r="V183" s="4"/>
+      <c r="T183" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W183" s="4" t="s">
         <v>576</v>
       </c>
@@ -15029,8 +15218,9 @@
       <c r="P184" s="2">
         <v>32752</v>
       </c>
-      <c r="U184" s="4"/>
-      <c r="V184" s="4"/>
+      <c r="T184" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W184" s="4" t="s">
         <v>578</v>
       </c>
@@ -15083,8 +15273,9 @@
       <c r="P185" s="2">
         <v>12160</v>
       </c>
-      <c r="U185" s="4"/>
-      <c r="V185" s="4"/>
+      <c r="T185" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W185" s="4" t="s">
         <v>581</v>
       </c>
@@ -15137,8 +15328,9 @@
       <c r="P186" s="2">
         <v>18715</v>
       </c>
-      <c r="U186" s="4"/>
-      <c r="V186" s="4"/>
+      <c r="T186" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W186" s="4" t="s">
         <v>584</v>
       </c>
@@ -15191,8 +15383,9 @@
       <c r="P187" s="2">
         <v>14166</v>
       </c>
-      <c r="U187" s="4"/>
-      <c r="V187" s="4"/>
+      <c r="T187" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W187" s="4" t="s">
         <v>586</v>
       </c>
@@ -15245,8 +15438,9 @@
       <c r="P188" s="2">
         <v>19110</v>
       </c>
-      <c r="U188" s="4"/>
-      <c r="V188" s="4"/>
+      <c r="T188" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W188" s="4" t="s">
         <v>588</v>
       </c>
@@ -15299,8 +15493,9 @@
       <c r="P189" s="2">
         <v>11160</v>
       </c>
-      <c r="U189" s="4"/>
-      <c r="V189" s="4"/>
+      <c r="T189" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W189" s="4" t="s">
         <v>591</v>
       </c>
@@ -15353,8 +15548,9 @@
       <c r="P190" s="2">
         <v>8850</v>
       </c>
-      <c r="U190" s="4"/>
-      <c r="V190" s="4"/>
+      <c r="T190" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W190" s="4" t="s">
         <v>594</v>
       </c>
@@ -15407,8 +15603,9 @@
       <c r="P191" s="2">
         <v>17615</v>
       </c>
-      <c r="U191" s="4"/>
-      <c r="V191" s="4"/>
+      <c r="T191" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W191" s="4" t="s">
         <v>597</v>
       </c>
@@ -15461,8 +15658,9 @@
       <c r="P192" s="2">
         <v>34920</v>
       </c>
-      <c r="U192" s="4"/>
-      <c r="V192" s="4"/>
+      <c r="T192" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W192" s="4" t="s">
         <v>600</v>
       </c>
@@ -15515,8 +15713,9 @@
       <c r="P193" s="2">
         <v>17510</v>
       </c>
-      <c r="U193" s="4"/>
-      <c r="V193" s="4"/>
+      <c r="T193" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W193" s="4" t="s">
         <v>603</v>
       </c>
@@ -15569,8 +15768,9 @@
       <c r="P194" s="2">
         <v>13360</v>
       </c>
-      <c r="U194" s="4"/>
-      <c r="V194" s="4"/>
+      <c r="T194" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W194" s="4" t="s">
         <v>606</v>
       </c>
@@ -15623,8 +15823,9 @@
       <c r="P195" s="2">
         <v>25740</v>
       </c>
-      <c r="U195" s="4"/>
-      <c r="V195" s="4"/>
+      <c r="T195" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W195" s="4" t="s">
         <v>609</v>
       </c>
@@ -15677,8 +15878,9 @@
       <c r="P196" s="2">
         <v>4800</v>
       </c>
-      <c r="U196" s="4"/>
-      <c r="V196" s="4"/>
+      <c r="T196" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W196" s="4" t="s">
         <v>612</v>
       </c>
@@ -15731,8 +15933,9 @@
       <c r="P197" s="2">
         <v>7830</v>
       </c>
-      <c r="U197" s="4"/>
-      <c r="V197" s="4"/>
+      <c r="T197" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W197" s="4" t="s">
         <v>615</v>
       </c>
@@ -15785,8 +15988,9 @@
       <c r="P198" s="2">
         <v>14180</v>
       </c>
-      <c r="U198" s="4"/>
-      <c r="V198" s="4"/>
+      <c r="T198" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W198" s="4" t="s">
         <v>617</v>
       </c>
@@ -15839,8 +16043,9 @@
       <c r="P199" s="2">
         <v>15080</v>
       </c>
-      <c r="U199" s="4"/>
-      <c r="V199" s="4"/>
+      <c r="T199" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W199" s="4" t="s">
         <v>619</v>
       </c>
@@ -15893,8 +16098,9 @@
       <c r="P200" s="2">
         <v>4440</v>
       </c>
-      <c r="U200" s="4"/>
-      <c r="V200" s="4"/>
+      <c r="T200" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W200" s="4" t="s">
         <v>622</v>
       </c>
@@ -15947,8 +16153,9 @@
       <c r="P201" s="2">
         <v>20880</v>
       </c>
-      <c r="U201" s="4"/>
-      <c r="V201" s="4"/>
+      <c r="T201" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W201" s="4" t="s">
         <v>624</v>
       </c>
@@ -16001,8 +16208,9 @@
       <c r="P202" s="2">
         <v>11610</v>
       </c>
-      <c r="U202" s="4"/>
-      <c r="V202" s="4"/>
+      <c r="T202" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W202" s="4" t="s">
         <v>627</v>
       </c>
@@ -16055,8 +16263,9 @@
       <c r="P203" s="2">
         <v>11726</v>
       </c>
-      <c r="U203" s="4"/>
-      <c r="V203" s="4"/>
+      <c r="T203" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W203" s="4" t="s">
         <v>629</v>
       </c>
@@ -16109,8 +16318,9 @@
       <c r="P204" s="2">
         <v>31752</v>
       </c>
-      <c r="U204" s="4"/>
-      <c r="V204" s="4"/>
+      <c r="T204" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W204" s="4" t="s">
         <v>632</v>
       </c>
@@ -16163,8 +16373,9 @@
       <c r="P205" s="2">
         <v>19200</v>
       </c>
-      <c r="U205" s="4"/>
-      <c r="V205" s="4"/>
+      <c r="T205" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W205" s="4" t="s">
         <v>635</v>
       </c>
@@ -16217,8 +16428,9 @@
       <c r="P206" s="2">
         <v>8680</v>
       </c>
-      <c r="U206" s="4"/>
-      <c r="V206" s="4"/>
+      <c r="T206" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W206" s="4" t="s">
         <v>638</v>
       </c>
@@ -16271,8 +16483,9 @@
       <c r="P207" s="2">
         <v>32340</v>
       </c>
-      <c r="U207" s="4"/>
-      <c r="V207" s="4"/>
+      <c r="T207" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W207" s="4" t="s">
         <v>641</v>
       </c>
@@ -16325,8 +16538,9 @@
       <c r="P208" s="2">
         <v>5445</v>
       </c>
-      <c r="U208" s="4"/>
-      <c r="V208" s="4"/>
+      <c r="T208" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W208" s="4" t="s">
         <v>644</v>
       </c>
@@ -16379,8 +16593,9 @@
       <c r="P209" s="2">
         <v>9120</v>
       </c>
-      <c r="U209" s="4"/>
-      <c r="V209" s="4"/>
+      <c r="T209" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W209" s="4" t="s">
         <v>647</v>
       </c>
@@ -16433,8 +16648,9 @@
       <c r="P210" s="2">
         <v>25000</v>
       </c>
-      <c r="U210" s="4"/>
-      <c r="V210" s="4"/>
+      <c r="T210" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W210" s="4" t="s">
         <v>650</v>
       </c>
@@ -16487,8 +16703,9 @@
       <c r="P211" s="2">
         <v>15120</v>
       </c>
-      <c r="U211" s="4"/>
-      <c r="V211" s="4"/>
+      <c r="T211" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W211" s="4" t="s">
         <v>653</v>
       </c>
@@ -16541,8 +16758,9 @@
       <c r="P212" s="2">
         <v>19725</v>
       </c>
-      <c r="U212" s="4"/>
-      <c r="V212" s="4"/>
+      <c r="T212" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W212" s="4" t="s">
         <v>656</v>
       </c>
@@ -16595,8 +16813,9 @@
       <c r="P213" s="2">
         <v>8460</v>
       </c>
-      <c r="U213" s="4"/>
-      <c r="V213" s="4"/>
+      <c r="T213" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W213" s="4" t="s">
         <v>659</v>
       </c>
@@ -16649,8 +16868,9 @@
       <c r="P214" s="2">
         <v>13950</v>
       </c>
-      <c r="U214" s="4"/>
-      <c r="V214" s="4"/>
+      <c r="T214" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W214" s="4" t="s">
         <v>662</v>
       </c>
@@ -16703,8 +16923,9 @@
       <c r="P215" s="2">
         <v>37040</v>
       </c>
-      <c r="U215" s="4"/>
-      <c r="V215" s="4"/>
+      <c r="T215" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W215" s="4" t="s">
         <v>665</v>
       </c>
@@ -16757,8 +16978,9 @@
       <c r="P216" s="2">
         <v>11700</v>
       </c>
-      <c r="U216" s="4"/>
-      <c r="V216" s="4"/>
+      <c r="T216" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W216" s="4" t="s">
         <v>668</v>
       </c>
@@ -16811,8 +17033,9 @@
       <c r="P217" s="2">
         <v>8550</v>
       </c>
-      <c r="U217" s="4"/>
-      <c r="V217" s="4"/>
+      <c r="T217" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W217" s="4" t="s">
         <v>670</v>
       </c>
@@ -16865,8 +17088,9 @@
       <c r="P218" s="2">
         <v>9850</v>
       </c>
-      <c r="U218" s="4"/>
-      <c r="V218" s="4"/>
+      <c r="T218" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W218" s="4" t="s">
         <v>673</v>
       </c>
@@ -16919,8 +17143,9 @@
       <c r="P219" s="2">
         <v>49300</v>
       </c>
-      <c r="U219" s="4"/>
-      <c r="V219" s="4"/>
+      <c r="T219" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W219" s="4" t="s">
         <v>676</v>
       </c>
@@ -16973,8 +17198,9 @@
       <c r="P220" s="2">
         <v>14155</v>
       </c>
-      <c r="U220" s="4"/>
-      <c r="V220" s="4"/>
+      <c r="T220" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W220" s="4" t="s">
         <v>679</v>
       </c>
@@ -17027,8 +17253,9 @@
       <c r="P221" s="2">
         <v>6272</v>
       </c>
-      <c r="U221" s="4"/>
-      <c r="V221" s="4"/>
+      <c r="T221" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W221" s="4" t="s">
         <v>682</v>
       </c>
@@ -17081,8 +17308,9 @@
       <c r="P222" s="2">
         <v>23100</v>
       </c>
-      <c r="U222" s="4"/>
-      <c r="V222" s="4"/>
+      <c r="T222" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W222" s="4" t="s">
         <v>685</v>
       </c>
@@ -17135,8 +17363,9 @@
       <c r="P223" s="2">
         <v>42160</v>
       </c>
-      <c r="U223" s="4"/>
-      <c r="V223" s="4"/>
+      <c r="T223" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W223" s="4" t="s">
         <v>687</v>
       </c>
@@ -17189,8 +17418,9 @@
       <c r="P224" s="2">
         <v>19125</v>
       </c>
-      <c r="U224" s="4"/>
-      <c r="V224" s="4"/>
+      <c r="T224" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W224" s="4" t="s">
         <v>690</v>
       </c>
@@ -17243,8 +17473,9 @@
       <c r="P225" s="2">
         <v>10890</v>
       </c>
-      <c r="U225" s="4"/>
-      <c r="V225" s="4"/>
+      <c r="T225" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W225" s="4" t="s">
         <v>693</v>
       </c>
@@ -17297,8 +17528,9 @@
       <c r="P226" s="2">
         <v>24180</v>
       </c>
-      <c r="U226" s="4"/>
-      <c r="V226" s="4"/>
+      <c r="T226" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W226" s="4" t="s">
         <v>696</v>
       </c>
@@ -17351,8 +17583,9 @@
       <c r="P227" s="2">
         <v>11100</v>
       </c>
-      <c r="U227" s="4"/>
-      <c r="V227" s="4"/>
+      <c r="T227" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W227" s="4" t="s">
         <v>699</v>
       </c>
@@ -17405,8 +17638,9 @@
       <c r="P228" s="2">
         <v>11850</v>
       </c>
-      <c r="U228" s="4"/>
-      <c r="V228" s="4"/>
+      <c r="T228" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W228" s="4" t="s">
         <v>703</v>
       </c>
@@ -17459,8 +17693,9 @@
       <c r="P229" s="2">
         <v>16800</v>
       </c>
-      <c r="U229" s="4"/>
-      <c r="V229" s="4"/>
+      <c r="T229" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W229" s="4" t="s">
         <v>706</v>
       </c>
@@ -17513,8 +17748,9 @@
       <c r="P230" s="2">
         <v>19040</v>
       </c>
-      <c r="U230" s="4"/>
-      <c r="V230" s="4"/>
+      <c r="T230" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W230" s="4" t="s">
         <v>709</v>
       </c>
@@ -17567,8 +17803,9 @@
       <c r="P231" s="2">
         <v>13950</v>
       </c>
-      <c r="U231" s="4"/>
-      <c r="V231" s="4"/>
+      <c r="T231" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W231" s="4" t="s">
         <v>712</v>
       </c>
@@ -17621,8 +17858,9 @@
       <c r="P232" s="2">
         <v>21400</v>
       </c>
-      <c r="U232" s="4"/>
-      <c r="V232" s="4"/>
+      <c r="T232" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W232" s="4" t="s">
         <v>715</v>
       </c>
@@ -17675,8 +17913,9 @@
       <c r="P233" s="2">
         <v>22104</v>
       </c>
-      <c r="U233" s="4"/>
-      <c r="V233" s="4"/>
+      <c r="T233" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W233" s="4" t="s">
         <v>718</v>
       </c>
@@ -17729,8 +17968,9 @@
       <c r="P234" s="2">
         <v>9520</v>
       </c>
-      <c r="U234" s="4"/>
-      <c r="V234" s="4"/>
+      <c r="T234" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W234" s="4" t="s">
         <v>721</v>
       </c>
@@ -17783,8 +18023,9 @@
       <c r="P235" s="2">
         <v>15200</v>
       </c>
-      <c r="U235" s="4"/>
-      <c r="V235" s="4"/>
+      <c r="T235" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W235" s="4" t="s">
         <v>724</v>
       </c>
@@ -17837,8 +18078,9 @@
       <c r="P236" s="2">
         <v>13130</v>
       </c>
-      <c r="U236" s="4"/>
-      <c r="V236" s="4"/>
+      <c r="T236" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W236" s="4" t="s">
         <v>727</v>
       </c>
@@ -17891,8 +18133,9 @@
       <c r="P237" s="2">
         <v>31500</v>
       </c>
-      <c r="U237" s="4"/>
-      <c r="V237" s="4"/>
+      <c r="T237" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W237" s="4" t="s">
         <v>730</v>
       </c>
@@ -17945,8 +18188,9 @@
       <c r="P238" s="2">
         <v>14560</v>
       </c>
-      <c r="U238" s="4"/>
-      <c r="V238" s="4"/>
+      <c r="T238" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W238" s="4" t="s">
         <v>733</v>
       </c>
@@ -17999,8 +18243,9 @@
       <c r="P239" s="2">
         <v>10200</v>
       </c>
-      <c r="U239" s="4"/>
-      <c r="V239" s="4"/>
+      <c r="T239" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W239" s="4" t="s">
         <v>736</v>
       </c>
@@ -18053,8 +18298,9 @@
       <c r="P240" s="2">
         <v>50652</v>
       </c>
-      <c r="U240" s="4"/>
-      <c r="V240" s="4"/>
+      <c r="T240" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W240" s="4" t="s">
         <v>739</v>
       </c>
@@ -18107,8 +18353,9 @@
       <c r="P241" s="2">
         <v>34965</v>
       </c>
-      <c r="U241" s="4"/>
-      <c r="V241" s="4"/>
+      <c r="T241" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W241" s="4" t="s">
         <v>742</v>
       </c>
@@ -18161,8 +18408,9 @@
       <c r="P242" s="2">
         <v>17780</v>
       </c>
-      <c r="U242" s="4"/>
-      <c r="V242" s="4"/>
+      <c r="T242" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W242" s="4" t="s">
         <v>745</v>
       </c>
@@ -18215,8 +18463,9 @@
       <c r="P243" s="2">
         <v>15300</v>
       </c>
-      <c r="U243" s="4"/>
-      <c r="V243" s="4"/>
+      <c r="T243" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W243" s="4" t="s">
         <v>748</v>
       </c>
@@ -18269,8 +18518,9 @@
       <c r="P244" s="2">
         <v>17025</v>
       </c>
-      <c r="U244" s="4"/>
-      <c r="V244" s="4"/>
+      <c r="T244" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W244" s="4" t="s">
         <v>751</v>
       </c>
@@ -18323,8 +18573,9 @@
       <c r="P245" s="2">
         <v>21195</v>
       </c>
-      <c r="U245" s="4"/>
-      <c r="V245" s="4"/>
+      <c r="T245" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W245" s="4" t="s">
         <v>754</v>
       </c>
@@ -18377,8 +18628,9 @@
       <c r="P246" s="2">
         <v>8750</v>
       </c>
-      <c r="U246" s="4"/>
-      <c r="V246" s="4"/>
+      <c r="T246" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W246" s="4" t="s">
         <v>757</v>
       </c>
@@ -18431,8 +18683,9 @@
       <c r="P247" s="2">
         <v>15260</v>
       </c>
-      <c r="U247" s="4"/>
-      <c r="V247" s="4"/>
+      <c r="T247" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W247" s="4" t="s">
         <v>760</v>
       </c>
@@ -18485,8 +18738,9 @@
       <c r="P248" s="2">
         <v>19650</v>
       </c>
-      <c r="U248" s="4"/>
-      <c r="V248" s="4"/>
+      <c r="T248" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W248" s="4" t="s">
         <v>763</v>
       </c>
@@ -18539,8 +18793,9 @@
       <c r="P249" s="2">
         <v>28270</v>
       </c>
-      <c r="U249" s="4"/>
-      <c r="V249" s="4"/>
+      <c r="T249" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W249" s="4" t="s">
         <v>766</v>
       </c>
@@ -18593,8 +18848,9 @@
       <c r="P250" s="2">
         <v>14060</v>
       </c>
-      <c r="U250" s="4"/>
-      <c r="V250" s="4"/>
+      <c r="T250" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W250" s="4" t="s">
         <v>769</v>
       </c>
@@ -18647,8 +18903,9 @@
       <c r="P251" s="2">
         <v>10010</v>
       </c>
-      <c r="U251" s="4"/>
-      <c r="V251" s="4"/>
+      <c r="T251" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W251" s="4" t="s">
         <v>772</v>
       </c>
@@ -18701,8 +18958,9 @@
       <c r="P252" s="2">
         <v>8322</v>
       </c>
-      <c r="U252" s="4"/>
-      <c r="V252" s="4"/>
+      <c r="T252" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W252" s="4" t="s">
         <v>775</v>
       </c>
@@ -18755,8 +19013,9 @@
       <c r="P253" s="2">
         <v>26460</v>
       </c>
-      <c r="U253" s="4"/>
-      <c r="V253" s="4"/>
+      <c r="T253" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W253" s="4" t="s">
         <v>778</v>
       </c>
@@ -18809,8 +19068,9 @@
       <c r="P254" s="2">
         <v>26920</v>
       </c>
-      <c r="U254" s="4"/>
-      <c r="V254" s="4"/>
+      <c r="T254" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W254" s="4" t="s">
         <v>781</v>
       </c>
@@ -18863,8 +19123,9 @@
       <c r="P255" s="2">
         <v>24380</v>
       </c>
-      <c r="U255" s="4"/>
-      <c r="V255" s="4"/>
+      <c r="T255" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W255" s="4" t="s">
         <v>784</v>
       </c>
@@ -18917,8 +19178,9 @@
       <c r="P256" s="2">
         <v>17200</v>
       </c>
-      <c r="U256" s="4"/>
-      <c r="V256" s="4"/>
+      <c r="T256" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W256" s="4" t="s">
         <v>786</v>
       </c>
@@ -18971,8 +19233,9 @@
       <c r="P257" s="2">
         <v>15980</v>
       </c>
-      <c r="U257" s="4"/>
-      <c r="V257" s="4"/>
+      <c r="T257" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W257" s="4" t="s">
         <v>789</v>
       </c>
@@ -19025,8 +19288,9 @@
       <c r="P258" s="2">
         <v>18760</v>
       </c>
-      <c r="U258" s="4"/>
-      <c r="V258" s="4"/>
+      <c r="T258" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W258" s="4" t="s">
         <v>792</v>
       </c>
@@ -19079,8 +19343,9 @@
       <c r="P259" s="2">
         <v>17710</v>
       </c>
-      <c r="U259" s="4"/>
-      <c r="V259" s="4"/>
+      <c r="T259" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W259" s="4" t="s">
         <v>795</v>
       </c>
@@ -19133,8 +19398,9 @@
       <c r="P260" s="2">
         <v>22678</v>
       </c>
-      <c r="U260" s="4"/>
-      <c r="V260" s="4"/>
+      <c r="T260" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W260" s="4" t="s">
         <v>798</v>
       </c>
@@ -19187,8 +19453,9 @@
       <c r="P261" s="2">
         <v>16575</v>
       </c>
-      <c r="U261" s="4"/>
-      <c r="V261" s="4"/>
+      <c r="T261" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W261" s="4" t="s">
         <v>801</v>
       </c>
@@ -19241,8 +19508,9 @@
       <c r="P262" s="2">
         <v>12110</v>
       </c>
-      <c r="U262" s="4"/>
-      <c r="V262" s="4"/>
+      <c r="T262" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W262" s="4" t="s">
         <v>804</v>
       </c>
@@ -19295,8 +19563,9 @@
       <c r="P263" s="2">
         <v>22785</v>
       </c>
-      <c r="U263" s="4"/>
-      <c r="V263" s="4"/>
+      <c r="T263" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W263" s="4" t="s">
         <v>807</v>
       </c>
@@ -19349,8 +19618,9 @@
       <c r="P264" s="2">
         <v>22650</v>
       </c>
-      <c r="U264" s="4"/>
-      <c r="V264" s="4"/>
+      <c r="T264" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W264" s="4" t="s">
         <v>810</v>
       </c>
@@ -19403,8 +19673,9 @@
       <c r="P265" s="2">
         <v>25920</v>
       </c>
-      <c r="U265" s="4"/>
-      <c r="V265" s="4"/>
+      <c r="T265" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W265" s="4" t="s">
         <v>813</v>
       </c>
@@ -19457,8 +19728,9 @@
       <c r="P266" s="2">
         <v>27807</v>
       </c>
-      <c r="U266" s="4"/>
-      <c r="V266" s="4"/>
+      <c r="T266" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W266" s="4" t="s">
         <v>816</v>
       </c>
@@ -19511,8 +19783,9 @@
       <c r="P267" s="2">
         <v>10100</v>
       </c>
-      <c r="U267" s="4"/>
-      <c r="V267" s="4"/>
+      <c r="T267" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W267" s="4" t="s">
         <v>819</v>
       </c>
@@ -19565,8 +19838,9 @@
       <c r="P268" s="2">
         <v>5920</v>
       </c>
-      <c r="U268" s="4"/>
-      <c r="V268" s="4"/>
+      <c r="T268" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W268" s="4" t="s">
         <v>823</v>
       </c>
@@ -19619,8 +19893,9 @@
       <c r="P269" s="2">
         <v>29832</v>
       </c>
-      <c r="U269" s="4"/>
-      <c r="V269" s="4"/>
+      <c r="T269" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W269" s="4" t="s">
         <v>827</v>
       </c>
@@ -19673,8 +19948,9 @@
       <c r="P270" s="2">
         <v>19560</v>
       </c>
-      <c r="U270" s="4"/>
-      <c r="V270" s="4"/>
+      <c r="T270" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W270" s="4" t="s">
         <v>830</v>
       </c>
@@ -19727,8 +20003,9 @@
       <c r="P271" s="2">
         <v>21760</v>
       </c>
-      <c r="U271" s="4"/>
-      <c r="V271" s="4"/>
+      <c r="T271" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W271" s="4" t="s">
         <v>833</v>
       </c>
@@ -19781,8 +20058,9 @@
       <c r="P272" s="2">
         <v>31750</v>
       </c>
-      <c r="U272" s="4"/>
-      <c r="V272" s="4"/>
+      <c r="T272" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W272" s="4" t="s">
         <v>836</v>
       </c>
@@ -19835,8 +20113,9 @@
       <c r="P273" s="2">
         <v>7335</v>
       </c>
-      <c r="U273" s="4"/>
-      <c r="V273" s="4"/>
+      <c r="T273" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W273" s="4" t="s">
         <v>839</v>
       </c>
@@ -19889,8 +20168,9 @@
       <c r="P274" s="2">
         <v>18150</v>
       </c>
-      <c r="U274" s="4"/>
-      <c r="V274" s="4"/>
+      <c r="T274" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W274" s="4" t="s">
         <v>842</v>
       </c>
@@ -19943,8 +20223,9 @@
       <c r="P275" s="2">
         <v>5760</v>
       </c>
-      <c r="U275" s="4"/>
-      <c r="V275" s="4"/>
+      <c r="T275" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W275" s="4" t="s">
         <v>845</v>
       </c>
@@ -19997,8 +20278,9 @@
       <c r="P276" s="2">
         <v>13980</v>
       </c>
-      <c r="U276" s="4"/>
-      <c r="V276" s="4"/>
+      <c r="T276" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W276" s="4" t="s">
         <v>848</v>
       </c>
@@ -20051,8 +20333,9 @@
       <c r="P277" s="2">
         <v>39375</v>
       </c>
-      <c r="U277" s="4"/>
-      <c r="V277" s="4"/>
+      <c r="T277" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W277" s="4" t="s">
         <v>851</v>
       </c>
@@ -20105,8 +20388,9 @@
       <c r="P278" s="2">
         <v>9360</v>
       </c>
-      <c r="U278" s="4"/>
-      <c r="V278" s="4"/>
+      <c r="T278" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W278" s="4" t="s">
         <v>853</v>
       </c>
@@ -20159,8 +20443,9 @@
       <c r="P279" s="2">
         <v>13000</v>
       </c>
-      <c r="U279" s="4"/>
-      <c r="V279" s="4"/>
+      <c r="T279" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W279" s="4" t="s">
         <v>856</v>
       </c>
@@ -20213,8 +20498,9 @@
       <c r="P280" s="2">
         <v>17860</v>
       </c>
-      <c r="U280" s="4"/>
-      <c r="V280" s="4"/>
+      <c r="T280" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W280" s="4" t="s">
         <v>859</v>
       </c>
@@ -20267,8 +20553,9 @@
       <c r="P281" s="2">
         <v>12060</v>
       </c>
-      <c r="U281" s="4"/>
-      <c r="V281" s="4"/>
+      <c r="T281" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W281" s="4" t="s">
         <v>862</v>
       </c>
@@ -20321,8 +20608,9 @@
       <c r="P282" s="2">
         <v>14280</v>
       </c>
-      <c r="U282" s="4"/>
-      <c r="V282" s="4"/>
+      <c r="T282" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W282" s="4" t="s">
         <v>865</v>
       </c>
@@ -20375,8 +20663,9 @@
       <c r="P283" s="2">
         <v>24432</v>
       </c>
-      <c r="U283" s="4"/>
-      <c r="V283" s="4"/>
+      <c r="T283" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W283" s="4" t="s">
         <v>868</v>
       </c>
@@ -20429,8 +20718,9 @@
       <c r="P284" s="2">
         <v>16352</v>
       </c>
-      <c r="U284" s="4"/>
-      <c r="V284" s="4"/>
+      <c r="T284" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W284" s="4" t="s">
         <v>871</v>
       </c>
@@ -20483,8 +20773,9 @@
       <c r="P285" s="2">
         <v>15680</v>
       </c>
-      <c r="U285" s="4"/>
-      <c r="V285" s="4"/>
+      <c r="T285" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W285" s="4" t="s">
         <v>874</v>
       </c>
@@ -20537,8 +20828,9 @@
       <c r="P286" s="2">
         <v>10348</v>
       </c>
-      <c r="U286" s="4"/>
-      <c r="V286" s="4"/>
+      <c r="T286" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W286" s="4" t="s">
         <v>877</v>
       </c>
@@ -20591,8 +20883,9 @@
       <c r="P287" s="2">
         <v>2295</v>
       </c>
-      <c r="U287" s="4"/>
-      <c r="V287" s="4"/>
+      <c r="T287" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W287" s="4" t="s">
         <v>880</v>
       </c>
@@ -20645,8 +20938,9 @@
       <c r="P288" s="2">
         <v>7300</v>
       </c>
-      <c r="U288" s="4"/>
-      <c r="V288" s="4"/>
+      <c r="T288" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W288" s="4" t="s">
         <v>883</v>
       </c>
@@ -20699,8 +20993,9 @@
       <c r="P289" s="2">
         <v>23940</v>
       </c>
-      <c r="U289" s="4"/>
-      <c r="V289" s="4"/>
+      <c r="T289" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W289" s="4" t="s">
         <v>886</v>
       </c>
@@ -20753,8 +21048,9 @@
       <c r="P290" s="2">
         <v>17856</v>
       </c>
-      <c r="U290" s="4"/>
-      <c r="V290" s="4"/>
+      <c r="T290" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W290" s="4" t="s">
         <v>889</v>
       </c>
@@ -20807,8 +21103,9 @@
       <c r="P291" s="2">
         <v>7770</v>
       </c>
-      <c r="U291" s="4"/>
-      <c r="V291" s="4"/>
+      <c r="T291" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W291" s="4" t="s">
         <v>892</v>
       </c>
@@ -20861,8 +21158,9 @@
       <c r="P292" s="2">
         <v>35190</v>
       </c>
-      <c r="U292" s="4"/>
-      <c r="V292" s="4"/>
+      <c r="T292" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W292" s="4" t="s">
         <v>895</v>
       </c>
@@ -20915,8 +21213,9 @@
       <c r="P293" s="2">
         <v>27940</v>
       </c>
-      <c r="U293" s="4"/>
-      <c r="V293" s="4"/>
+      <c r="T293" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W293" s="4" t="s">
         <v>898</v>
       </c>
@@ -20969,8 +21268,9 @@
       <c r="P294" s="2">
         <v>20700</v>
       </c>
-      <c r="U294" s="4"/>
-      <c r="V294" s="4"/>
+      <c r="T294" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W294" s="4" t="s">
         <v>901</v>
       </c>
@@ -21023,8 +21323,9 @@
       <c r="P295" s="2">
         <v>6500</v>
       </c>
-      <c r="U295" s="4"/>
-      <c r="V295" s="4"/>
+      <c r="T295" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W295" s="4" t="s">
         <v>904</v>
       </c>
@@ -21077,8 +21378,9 @@
       <c r="P296" s="2">
         <v>11670</v>
       </c>
-      <c r="U296" s="4"/>
-      <c r="V296" s="4"/>
+      <c r="T296" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W296" s="4" t="s">
         <v>907</v>
       </c>
@@ -21131,8 +21433,9 @@
       <c r="P297" s="2">
         <v>19936</v>
       </c>
-      <c r="U297" s="4"/>
-      <c r="V297" s="4"/>
+      <c r="T297" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W297" s="4" t="s">
         <v>910</v>
       </c>
@@ -21185,8 +21488,9 @@
       <c r="P298" s="2">
         <v>35076</v>
       </c>
-      <c r="U298" s="4"/>
-      <c r="V298" s="4"/>
+      <c r="T298" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W298" s="4" t="s">
         <v>913</v>
       </c>
@@ -21239,8 +21543,9 @@
       <c r="P299" s="2">
         <v>6894</v>
       </c>
-      <c r="U299" s="4"/>
-      <c r="V299" s="4"/>
+      <c r="T299" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W299" s="4" t="s">
         <v>916</v>
       </c>
@@ -21293,8 +21598,9 @@
       <c r="P300" s="2">
         <v>28200</v>
       </c>
-      <c r="U300" s="4"/>
-      <c r="V300" s="4"/>
+      <c r="T300" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W300" s="4" t="s">
         <v>919</v>
       </c>
@@ -21347,8 +21653,9 @@
       <c r="P301" s="2">
         <v>10170</v>
       </c>
-      <c r="U301" s="4"/>
-      <c r="V301" s="4"/>
+      <c r="T301" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W301" s="4" t="s">
         <v>922</v>
       </c>
@@ -21401,8 +21708,9 @@
       <c r="P302" s="2">
         <v>13910</v>
       </c>
-      <c r="U302" s="4"/>
-      <c r="V302" s="4"/>
+      <c r="T302" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W302" s="4" t="s">
         <v>925</v>
       </c>
@@ -21455,8 +21763,9 @@
       <c r="P303" s="2">
         <v>12825</v>
       </c>
-      <c r="U303" s="4"/>
-      <c r="V303" s="4"/>
+      <c r="T303" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W303" s="4" t="s">
         <v>928</v>
       </c>
@@ -21509,8 +21818,9 @@
       <c r="P304" s="2">
         <v>15300</v>
       </c>
-      <c r="U304" s="4"/>
-      <c r="V304" s="4"/>
+      <c r="T304" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W304" s="4" t="s">
         <v>931</v>
       </c>
@@ -21563,8 +21873,9 @@
       <c r="P305" s="2">
         <v>11160</v>
       </c>
-      <c r="U305" s="4"/>
-      <c r="V305" s="4"/>
+      <c r="T305" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W305" s="4" t="s">
         <v>934</v>
       </c>
@@ -21617,8 +21928,9 @@
       <c r="P306" s="2">
         <v>42112</v>
       </c>
-      <c r="U306" s="4"/>
-      <c r="V306" s="4"/>
+      <c r="T306" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W306" s="4" t="s">
         <v>937</v>
       </c>
@@ -21671,8 +21983,9 @@
       <c r="P307" s="2">
         <v>23250</v>
       </c>
-      <c r="U307" s="4"/>
-      <c r="V307" s="4"/>
+      <c r="T307" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W307" s="4" t="s">
         <v>940</v>
       </c>
@@ -21725,8 +22038,9 @@
       <c r="P308" s="2">
         <v>26220</v>
       </c>
-      <c r="U308" s="4"/>
-      <c r="V308" s="4"/>
+      <c r="T308" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W308" s="4" t="s">
         <v>943</v>
       </c>
@@ -21779,8 +22093,9 @@
       <c r="P309" s="2">
         <v>17914</v>
       </c>
-      <c r="U309" s="4"/>
-      <c r="V309" s="4"/>
+      <c r="T309" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W309" s="4" t="s">
         <v>946</v>
       </c>
@@ -21833,8 +22148,9 @@
       <c r="P310" s="2">
         <v>25300</v>
       </c>
-      <c r="U310" s="4"/>
-      <c r="V310" s="4"/>
+      <c r="T310" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W310" s="4" t="s">
         <v>949</v>
       </c>
@@ -21887,8 +22203,9 @@
       <c r="P311" s="2">
         <v>21204</v>
       </c>
-      <c r="U311" s="4"/>
-      <c r="V311" s="4"/>
+      <c r="T311" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W311" s="4" t="s">
         <v>952</v>
       </c>
@@ -21941,8 +22258,9 @@
       <c r="P312" s="2">
         <v>8140</v>
       </c>
-      <c r="U312" s="4"/>
-      <c r="V312" s="4"/>
+      <c r="T312" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W312" s="4" t="s">
         <v>955</v>
       </c>
@@ -21995,8 +22313,9 @@
       <c r="P313" s="2">
         <v>15555</v>
       </c>
-      <c r="U313" s="4"/>
-      <c r="V313" s="4"/>
+      <c r="T313" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W313" s="4" t="s">
         <v>958</v>
       </c>
@@ -22049,8 +22368,9 @@
       <c r="P314" s="2">
         <v>24700</v>
       </c>
-      <c r="U314" s="4"/>
-      <c r="V314" s="4"/>
+      <c r="T314" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W314" s="4" t="s">
         <v>962</v>
       </c>
@@ -22103,8 +22423,9 @@
       <c r="P315" s="2">
         <v>14856</v>
       </c>
-      <c r="U315" s="4"/>
-      <c r="V315" s="4"/>
+      <c r="T315" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W315" s="4" t="s">
         <v>966</v>
       </c>
@@ -22157,8 +22478,9 @@
       <c r="P316" s="2">
         <v>15820</v>
       </c>
-      <c r="U316" s="4"/>
-      <c r="V316" s="4"/>
+      <c r="T316" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W316" s="4" t="s">
         <v>969</v>
       </c>
@@ -22211,8 +22533,9 @@
       <c r="P317" s="2">
         <v>19080</v>
       </c>
-      <c r="U317" s="4"/>
-      <c r="V317" s="4"/>
+      <c r="T317" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W317" s="4" t="s">
         <v>972</v>
       </c>
@@ -22265,8 +22588,9 @@
       <c r="P318" s="2">
         <v>14880</v>
       </c>
-      <c r="U318" s="4"/>
-      <c r="V318" s="4"/>
+      <c r="T318" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W318" s="4" t="s">
         <v>975</v>
       </c>
@@ -22319,8 +22643,9 @@
       <c r="P319" s="2">
         <v>17325</v>
       </c>
-      <c r="U319" s="4"/>
-      <c r="V319" s="4"/>
+      <c r="T319" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W319" s="4" t="s">
         <v>978</v>
       </c>
@@ -22373,8 +22698,9 @@
       <c r="P320" s="2">
         <v>31860</v>
       </c>
-      <c r="U320" s="4"/>
-      <c r="V320" s="4"/>
+      <c r="T320" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W320" s="4" t="s">
         <v>981</v>
       </c>
@@ -22427,8 +22753,9 @@
       <c r="P321" s="2">
         <v>10136</v>
       </c>
-      <c r="U321" s="4"/>
-      <c r="V321" s="4"/>
+      <c r="T321" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W321" s="4" t="s">
         <v>984</v>
       </c>
@@ -22481,8 +22808,9 @@
       <c r="P322" s="2">
         <v>12901</v>
       </c>
-      <c r="U322" s="4"/>
-      <c r="V322" s="4"/>
+      <c r="T322" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W322" s="4" t="s">
         <v>987</v>
       </c>
@@ -22535,8 +22863,9 @@
       <c r="P323" s="2">
         <v>26550</v>
       </c>
-      <c r="U323" s="4"/>
-      <c r="V323" s="4"/>
+      <c r="T323" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W323" s="4" t="s">
         <v>990</v>
       </c>
@@ -22589,8 +22918,9 @@
       <c r="P324" s="2">
         <v>15015</v>
       </c>
-      <c r="U324" s="4"/>
-      <c r="V324" s="4"/>
+      <c r="T324" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W324" s="4" t="s">
         <v>993</v>
       </c>
@@ -22643,8 +22973,9 @@
       <c r="P325" s="2">
         <v>17250</v>
       </c>
-      <c r="U325" s="4"/>
-      <c r="V325" s="4"/>
+      <c r="T325" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W325" s="4" t="s">
         <v>996</v>
       </c>
@@ -22697,8 +23028,9 @@
       <c r="P326" s="2">
         <v>15570</v>
       </c>
-      <c r="U326" s="4"/>
-      <c r="V326" s="4"/>
+      <c r="T326" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W326" s="4" t="s">
         <v>999</v>
       </c>
@@ -22751,8 +23083,9 @@
       <c r="P327" s="2">
         <v>9850</v>
       </c>
-      <c r="U327" s="4"/>
-      <c r="V327" s="4"/>
+      <c r="T327" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W327" s="4" t="s">
         <v>1002</v>
       </c>
@@ -22805,8 +23138,9 @@
       <c r="P328" s="2">
         <v>15680</v>
       </c>
-      <c r="U328" s="4"/>
-      <c r="V328" s="4"/>
+      <c r="T328" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W328" s="4" t="s">
         <v>1004</v>
       </c>
@@ -22859,8 +23193,9 @@
       <c r="P329" s="2">
         <v>35910</v>
       </c>
-      <c r="U329" s="4"/>
-      <c r="V329" s="4"/>
+      <c r="T329" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W329" s="4" t="s">
         <v>1007</v>
       </c>
@@ -22913,8 +23248,9 @@
       <c r="P330" s="2">
         <v>11540</v>
       </c>
-      <c r="U330" s="4"/>
-      <c r="V330" s="4"/>
+      <c r="T330" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W330" s="4" t="s">
         <v>1010</v>
       </c>
@@ -22967,8 +23303,9 @@
       <c r="P331" s="2">
         <v>9594</v>
       </c>
-      <c r="U331" s="4"/>
-      <c r="V331" s="4"/>
+      <c r="T331" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W331" s="4" t="s">
         <v>1013</v>
       </c>
@@ -23021,8 +23358,9 @@
       <c r="P332" s="2">
         <v>12635</v>
       </c>
-      <c r="U332" s="4"/>
-      <c r="V332" s="4"/>
+      <c r="T332" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W332" s="4" t="s">
         <v>1016</v>
       </c>
@@ -23075,8 +23413,9 @@
       <c r="P333" s="2">
         <v>14370</v>
       </c>
-      <c r="U333" s="4"/>
-      <c r="V333" s="4"/>
+      <c r="T333" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W333" s="4" t="s">
         <v>1020</v>
       </c>
@@ -23129,8 +23468,9 @@
       <c r="P334" s="2">
         <v>12600</v>
       </c>
-      <c r="U334" s="4"/>
-      <c r="V334" s="4"/>
+      <c r="T334" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W334" s="4" t="s">
         <v>1023</v>
       </c>
@@ -23183,8 +23523,9 @@
       <c r="P335" s="2">
         <v>29380</v>
       </c>
-      <c r="U335" s="4"/>
-      <c r="V335" s="4"/>
+      <c r="T335" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W335" s="4" t="s">
         <v>1026</v>
       </c>
@@ -23237,8 +23578,9 @@
       <c r="P336" s="2">
         <v>6880</v>
       </c>
-      <c r="U336" s="4"/>
-      <c r="V336" s="4"/>
+      <c r="T336" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W336" s="4" t="s">
         <v>1029</v>
       </c>
@@ -23291,8 +23633,9 @@
       <c r="P337" s="2">
         <v>20175</v>
       </c>
-      <c r="U337" s="4"/>
-      <c r="V337" s="4"/>
+      <c r="T337" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W337" s="4" t="s">
         <v>1032</v>
       </c>
@@ -23345,8 +23688,9 @@
       <c r="P338" s="2">
         <v>17820</v>
       </c>
-      <c r="U338" s="4"/>
-      <c r="V338" s="4"/>
+      <c r="T338" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W338" s="4" t="s">
         <v>1035</v>
       </c>
@@ -23399,8 +23743,9 @@
       <c r="P339" s="2">
         <v>13195</v>
       </c>
-      <c r="U339" s="4"/>
-      <c r="V339" s="4"/>
+      <c r="T339" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W339" s="4" t="s">
         <v>1039</v>
       </c>
@@ -23453,8 +23798,9 @@
       <c r="P340" s="2">
         <v>11495</v>
       </c>
-      <c r="U340" s="4"/>
-      <c r="V340" s="4"/>
+      <c r="T340" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W340" s="4" t="s">
         <v>1042</v>
       </c>
@@ -23507,8 +23853,9 @@
       <c r="P341" s="2">
         <v>11655</v>
       </c>
-      <c r="U341" s="4"/>
-      <c r="V341" s="4"/>
+      <c r="T341" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W341" s="4" t="s">
         <v>1045</v>
       </c>
@@ -23561,8 +23908,9 @@
       <c r="P342" s="2">
         <v>15330</v>
       </c>
-      <c r="U342" s="4"/>
-      <c r="V342" s="4"/>
+      <c r="T342" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W342" s="4" t="s">
         <v>1048</v>
       </c>
@@ -23615,8 +23963,9 @@
       <c r="P343" s="2">
         <v>29140</v>
       </c>
-      <c r="U343" s="4"/>
-      <c r="V343" s="4"/>
+      <c r="T343" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W343" s="4" t="s">
         <v>1051</v>
       </c>
@@ -23669,8 +24018,9 @@
       <c r="P344" s="2">
         <v>17974</v>
       </c>
-      <c r="U344" s="4"/>
-      <c r="V344" s="4"/>
+      <c r="T344" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W344" s="4" t="s">
         <v>1054</v>
       </c>
@@ -23723,8 +24073,9 @@
       <c r="P345" s="2">
         <v>3360</v>
       </c>
-      <c r="U345" s="4"/>
-      <c r="V345" s="4"/>
+      <c r="T345" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W345" s="4" t="s">
         <v>1057</v>
       </c>
@@ -23777,8 +24128,9 @@
       <c r="P346" s="2">
         <v>8900</v>
       </c>
-      <c r="U346" s="4"/>
-      <c r="V346" s="4"/>
+      <c r="T346" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W346" s="4" t="s">
         <v>1060</v>
       </c>
@@ -23831,8 +24183,9 @@
       <c r="P347" s="2">
         <v>2200</v>
       </c>
-      <c r="U347" s="4"/>
-      <c r="V347" s="4"/>
+      <c r="T347" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W347" s="4" t="s">
         <v>1063</v>
       </c>
@@ -23885,8 +24238,9 @@
       <c r="P348" s="2">
         <v>1870</v>
       </c>
-      <c r="U348" s="4"/>
-      <c r="V348" s="4"/>
+      <c r="T348" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W348" s="4" t="s">
         <v>1066</v>
       </c>
@@ -23939,8 +24293,9 @@
       <c r="P349" s="2">
         <v>4000</v>
       </c>
-      <c r="U349" s="4"/>
-      <c r="V349" s="4"/>
+      <c r="T349" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W349" s="4" t="s">
         <v>1068</v>
       </c>
@@ -23993,8 +24348,9 @@
       <c r="P350" s="2">
         <v>1600</v>
       </c>
-      <c r="U350" s="4"/>
-      <c r="V350" s="4"/>
+      <c r="T350" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W350" s="4" t="s">
         <v>1070</v>
       </c>
@@ -24047,8 +24403,9 @@
       <c r="P351" s="2">
         <v>2450</v>
       </c>
-      <c r="U351" s="4"/>
-      <c r="V351" s="4"/>
+      <c r="T351" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W351" s="4" t="s">
         <v>1073</v>
       </c>
@@ -24101,8 +24458,9 @@
       <c r="P352" s="2">
         <v>1800</v>
       </c>
-      <c r="U352" s="4"/>
-      <c r="V352" s="4"/>
+      <c r="T352" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W352" s="4" t="s">
         <v>1075</v>
       </c>
@@ -24155,8 +24513,9 @@
       <c r="P353" s="2">
         <v>1900</v>
       </c>
-      <c r="U353" s="4"/>
-      <c r="V353" s="4"/>
+      <c r="T353" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W353" s="4" t="s">
         <v>1077</v>
       </c>
@@ -24209,8 +24568,9 @@
       <c r="P354" s="2">
         <v>1740</v>
       </c>
-      <c r="U354" s="4"/>
-      <c r="V354" s="4"/>
+      <c r="T354" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W354" s="4" t="s">
         <v>1079</v>
       </c>
@@ -24263,8 +24623,9 @@
       <c r="P355" s="2">
         <v>4680</v>
       </c>
-      <c r="U355" s="4"/>
-      <c r="V355" s="4"/>
+      <c r="T355" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W355" s="4" t="s">
         <v>1081</v>
       </c>
@@ -24317,8 +24678,9 @@
       <c r="P356" s="2">
         <v>2400</v>
       </c>
-      <c r="U356" s="4"/>
-      <c r="V356" s="4"/>
+      <c r="T356" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W356" s="4" t="s">
         <v>1083</v>
       </c>
@@ -24371,8 +24733,9 @@
       <c r="P357" s="2">
         <v>2378</v>
       </c>
-      <c r="U357" s="4"/>
-      <c r="V357" s="4"/>
+      <c r="T357" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W357" s="4" t="s">
         <v>1085</v>
       </c>
@@ -24425,8 +24788,9 @@
       <c r="P358" s="2">
         <v>4400</v>
       </c>
-      <c r="U358" s="4"/>
-      <c r="V358" s="4"/>
+      <c r="T358" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W358" s="4" t="s">
         <v>1088</v>
       </c>
@@ -24479,8 +24843,9 @@
       <c r="P359" s="2">
         <v>1560</v>
       </c>
-      <c r="U359" s="4"/>
-      <c r="V359" s="4"/>
+      <c r="T359" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W359" s="4" t="s">
         <v>1091</v>
       </c>
@@ -24533,8 +24898,9 @@
       <c r="P360" s="2">
         <v>1820</v>
       </c>
-      <c r="U360" s="4"/>
-      <c r="V360" s="4"/>
+      <c r="T360" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W360" s="4" t="s">
         <v>1093</v>
       </c>
@@ -24587,8 +24953,9 @@
       <c r="P361" s="2">
         <v>1610</v>
       </c>
-      <c r="U361" s="4"/>
-      <c r="V361" s="4"/>
+      <c r="T361" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W361" s="4" t="s">
         <v>1096</v>
       </c>
@@ -24641,8 +25008,9 @@
       <c r="P362" s="2">
         <v>1755</v>
       </c>
-      <c r="U362" s="4"/>
-      <c r="V362" s="4"/>
+      <c r="T362" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W362" s="4" t="s">
         <v>1099</v>
       </c>
@@ -24695,8 +25063,9 @@
       <c r="P363" s="2">
         <v>1800</v>
       </c>
-      <c r="U363" s="4"/>
-      <c r="V363" s="4"/>
+      <c r="T363" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W363" s="4" t="s">
         <v>1101</v>
       </c>
@@ -24749,8 +25118,9 @@
       <c r="P364" s="2">
         <v>3575</v>
       </c>
-      <c r="U364" s="4"/>
-      <c r="V364" s="4"/>
+      <c r="T364" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W364" s="4" t="s">
         <v>1103</v>
       </c>
@@ -24803,8 +25173,9 @@
       <c r="P365" s="2">
         <v>2250</v>
       </c>
-      <c r="U365" s="4"/>
-      <c r="V365" s="4"/>
+      <c r="T365" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W365" s="4" t="s">
         <v>1105</v>
       </c>
@@ -24857,8 +25228,9 @@
       <c r="P366" s="2">
         <v>2530</v>
       </c>
-      <c r="U366" s="4"/>
-      <c r="V366" s="4"/>
+      <c r="T366" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W366" s="4" t="s">
         <v>1108</v>
       </c>
@@ -24911,8 +25283,9 @@
       <c r="P367" s="2">
         <v>1960</v>
       </c>
-      <c r="U367" s="4"/>
-      <c r="V367" s="4"/>
+      <c r="T367" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W367" s="4" t="s">
         <v>1111</v>
       </c>
@@ -24965,8 +25338,9 @@
       <c r="P368" s="2">
         <v>2142</v>
       </c>
-      <c r="U368" s="4"/>
-      <c r="V368" s="4"/>
+      <c r="T368" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W368" s="4" t="s">
         <v>1114</v>
       </c>
@@ -25019,8 +25393,9 @@
       <c r="P369" s="2">
         <v>2325</v>
       </c>
-      <c r="U369" s="4"/>
-      <c r="V369" s="4"/>
+      <c r="T369" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W369" s="4" t="s">
         <v>1117</v>
       </c>
@@ -25073,8 +25448,9 @@
       <c r="P370" s="2">
         <v>3080</v>
       </c>
-      <c r="U370" s="4"/>
-      <c r="V370" s="4"/>
+      <c r="T370" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W370" s="4" t="s">
         <v>1119</v>
       </c>
@@ -25127,8 +25503,9 @@
       <c r="P371" s="2">
         <v>22533</v>
       </c>
-      <c r="U371" s="4"/>
-      <c r="V371" s="4"/>
+      <c r="T371" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W371" s="4" t="s">
         <v>1122</v>
       </c>
@@ -25181,8 +25558,9 @@
       <c r="P372" s="2">
         <v>40248</v>
       </c>
-      <c r="U372" s="4"/>
-      <c r="V372" s="4"/>
+      <c r="T372" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W372" s="4" t="s">
         <v>1124</v>
       </c>
@@ -25235,8 +25613,9 @@
       <c r="P373" s="2">
         <v>14835</v>
       </c>
-      <c r="U373" s="4"/>
-      <c r="V373" s="4"/>
+      <c r="T373" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W373" s="4" t="s">
         <v>1127</v>
       </c>
@@ -25289,8 +25668,9 @@
       <c r="P374" s="2">
         <v>30300</v>
       </c>
-      <c r="U374" s="4"/>
-      <c r="V374" s="4"/>
+      <c r="T374" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W374" s="4" t="s">
         <v>1130</v>
       </c>
@@ -25343,8 +25723,9 @@
       <c r="P375" s="2">
         <v>26550</v>
       </c>
-      <c r="U375" s="4"/>
-      <c r="V375" s="4"/>
+      <c r="T375" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W375" s="4" t="s">
         <v>1132</v>
       </c>
@@ -25397,8 +25778,9 @@
       <c r="P376" s="2">
         <v>26350</v>
       </c>
-      <c r="U376" s="4"/>
-      <c r="V376" s="4"/>
+      <c r="T376" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W376" s="4" t="s">
         <v>1136</v>
       </c>
@@ -25451,8 +25833,9 @@
       <c r="P377" s="2">
         <v>24915</v>
       </c>
-      <c r="U377" s="4"/>
-      <c r="V377" s="4"/>
+      <c r="T377" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W377" s="4" t="s">
         <v>1139</v>
       </c>
@@ -25505,8 +25888,9 @@
       <c r="P378" s="2">
         <v>21186</v>
       </c>
-      <c r="U378" s="4"/>
-      <c r="V378" s="4"/>
+      <c r="T378" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W378" s="4" t="s">
         <v>1141</v>
       </c>
@@ -25559,8 +25943,9 @@
       <c r="P379" s="2">
         <v>21580</v>
       </c>
-      <c r="U379" s="4"/>
-      <c r="V379" s="4"/>
+      <c r="T379" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W379" s="4" t="s">
         <v>1144</v>
       </c>
@@ -25613,8 +25998,9 @@
       <c r="P380" s="2">
         <v>20194</v>
       </c>
-      <c r="U380" s="4"/>
-      <c r="V380" s="4"/>
+      <c r="T380" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W380" s="4" t="s">
         <v>1147</v>
       </c>
@@ -25667,8 +26053,9 @@
       <c r="P381" s="2">
         <v>22728</v>
       </c>
-      <c r="U381" s="4"/>
-      <c r="V381" s="4"/>
+      <c r="T381" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W381" s="4" t="s">
         <v>1150</v>
       </c>
@@ -25721,8 +26108,9 @@
       <c r="P382" s="2">
         <v>30680</v>
       </c>
-      <c r="U382" s="4"/>
-      <c r="V382" s="4"/>
+      <c r="T382" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W382" s="4" t="s">
         <v>1153</v>
       </c>
@@ -25775,8 +26163,9 @@
       <c r="P383" s="2">
         <v>11045</v>
       </c>
-      <c r="U383" s="4"/>
-      <c r="V383" s="4"/>
+      <c r="T383" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W383" s="4" t="s">
         <v>1156</v>
       </c>
@@ -25829,8 +26218,9 @@
       <c r="P384" s="2">
         <v>17930</v>
       </c>
-      <c r="U384" s="4"/>
-      <c r="V384" s="4"/>
+      <c r="T384" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W384" s="4" t="s">
         <v>1159</v>
       </c>
@@ -25883,8 +26273,9 @@
       <c r="P385" s="2">
         <v>18630</v>
       </c>
-      <c r="U385" s="4"/>
-      <c r="V385" s="4"/>
+      <c r="T385" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W385" s="4" t="s">
         <v>1161</v>
       </c>
@@ -25937,8 +26328,9 @@
       <c r="P386" s="2">
         <v>23900</v>
       </c>
-      <c r="U386" s="4"/>
-      <c r="V386" s="4"/>
+      <c r="T386" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W386" s="4" t="s">
         <v>1164</v>
       </c>
@@ -25991,8 +26383,9 @@
       <c r="P387" s="2">
         <v>16700</v>
       </c>
-      <c r="U387" s="4"/>
-      <c r="V387" s="4"/>
+      <c r="T387" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W387" s="4" t="s">
         <v>1167</v>
       </c>
@@ -26045,8 +26438,9 @@
       <c r="P388" s="2">
         <v>21500</v>
       </c>
-      <c r="U388" s="4"/>
-      <c r="V388" s="4"/>
+      <c r="T388" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W388" s="4" t="s">
         <v>1170</v>
       </c>
@@ -26099,8 +26493,9 @@
       <c r="P389" s="2">
         <v>44850</v>
       </c>
-      <c r="U389" s="4"/>
-      <c r="V389" s="4"/>
+      <c r="T389" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W389" s="4" t="s">
         <v>1172</v>
       </c>
@@ -26153,8 +26548,9 @@
       <c r="P390" s="2">
         <v>13420</v>
       </c>
-      <c r="U390" s="4"/>
-      <c r="V390" s="4"/>
+      <c r="T390" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W390" s="4" t="s">
         <v>1176</v>
       </c>
@@ -26207,8 +26603,9 @@
       <c r="P391" s="2">
         <v>32130</v>
       </c>
-      <c r="U391" s="4"/>
-      <c r="V391" s="4"/>
+      <c r="T391" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W391" s="4" t="s">
         <v>1179</v>
       </c>
@@ -26261,8 +26658,9 @@
       <c r="P392" s="2">
         <v>23400</v>
       </c>
-      <c r="U392" s="4"/>
-      <c r="V392" s="4"/>
+      <c r="T392" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W392" s="4" t="s">
         <v>1182</v>
       </c>
@@ -26315,8 +26713,9 @@
       <c r="P393" s="2">
         <v>15774</v>
       </c>
-      <c r="U393" s="4"/>
-      <c r="V393" s="4"/>
+      <c r="T393" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W393" s="4" t="s">
         <v>1185</v>
       </c>
@@ -26369,8 +26768,9 @@
       <c r="P394" s="2">
         <v>18690</v>
       </c>
-      <c r="U394" s="4"/>
-      <c r="V394" s="4"/>
+      <c r="T394" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W394" s="4" t="s">
         <v>1188</v>
       </c>
@@ -26423,8 +26823,9 @@
       <c r="P395" s="2">
         <v>28675</v>
       </c>
-      <c r="U395" s="4"/>
-      <c r="V395" s="4"/>
+      <c r="T395" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W395" s="4" t="s">
         <v>1191</v>
       </c>
@@ -26477,8 +26878,9 @@
       <c r="P396" s="2">
         <v>19470</v>
       </c>
-      <c r="U396" s="4"/>
-      <c r="V396" s="4"/>
+      <c r="T396" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W396" s="4" t="s">
         <v>1194</v>
       </c>
@@ -26531,8 +26933,9 @@
       <c r="P397" s="2">
         <v>32550</v>
       </c>
-      <c r="U397" s="4"/>
-      <c r="V397" s="4"/>
+      <c r="T397" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W397" s="4" t="s">
         <v>1197</v>
       </c>
@@ -26585,8 +26988,9 @@
       <c r="P398" s="2">
         <v>25245</v>
       </c>
-      <c r="U398" s="4"/>
-      <c r="V398" s="4"/>
+      <c r="T398" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W398" s="4" t="s">
         <v>1200</v>
       </c>
@@ -26639,8 +27043,9 @@
       <c r="P399" s="2">
         <v>26700</v>
       </c>
-      <c r="U399" s="4"/>
-      <c r="V399" s="4"/>
+      <c r="T399" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W399" s="4" t="s">
         <v>1203</v>
       </c>
@@ -26693,8 +27098,9 @@
       <c r="P400" s="2">
         <v>16500</v>
       </c>
-      <c r="U400" s="4"/>
-      <c r="V400" s="4"/>
+      <c r="T400" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W400" s="4" t="s">
         <v>1206</v>
       </c>
@@ -26747,8 +27153,9 @@
       <c r="P401" s="2">
         <v>14004</v>
       </c>
-      <c r="U401" s="4"/>
-      <c r="V401" s="4"/>
+      <c r="T401" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W401" s="4" t="s">
         <v>1209</v>
       </c>
@@ -26801,8 +27208,9 @@
       <c r="P402" s="2">
         <v>17885</v>
       </c>
-      <c r="U402" s="4"/>
-      <c r="V402" s="4"/>
+      <c r="T402" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W402" s="4" t="s">
         <v>1212</v>
       </c>
@@ -26855,8 +27263,9 @@
       <c r="P403" s="2">
         <v>20010</v>
       </c>
-      <c r="U403" s="4"/>
-      <c r="V403" s="4"/>
+      <c r="T403" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W403" s="4" t="s">
         <v>1216</v>
       </c>
@@ -26909,8 +27318,9 @@
       <c r="P404" s="2">
         <v>12870</v>
       </c>
-      <c r="U404" s="4"/>
-      <c r="V404" s="4"/>
+      <c r="T404" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W404" s="4" t="s">
         <v>1219</v>
       </c>
@@ -26963,8 +27373,9 @@
       <c r="P405" s="2">
         <v>16125</v>
       </c>
-      <c r="U405" s="4"/>
-      <c r="V405" s="4"/>
+      <c r="T405" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W405" s="4" t="s">
         <v>1222</v>
       </c>
@@ -27017,8 +27428,9 @@
       <c r="P406" s="2">
         <v>49660</v>
       </c>
-      <c r="U406" s="4"/>
-      <c r="V406" s="4"/>
+      <c r="T406" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W406" s="4" t="s">
         <v>1225</v>
       </c>
@@ -27071,8 +27483,9 @@
       <c r="P407" s="2">
         <v>18200</v>
       </c>
-      <c r="U407" s="4"/>
-      <c r="V407" s="4"/>
+      <c r="T407" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W407" s="4" t="s">
         <v>1228</v>
       </c>
@@ -27125,8 +27538,9 @@
       <c r="P408" s="2">
         <v>19440</v>
       </c>
-      <c r="U408" s="4"/>
-      <c r="V408" s="4"/>
+      <c r="T408" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W408" s="4" t="s">
         <v>1230</v>
       </c>
@@ -27179,8 +27593,9 @@
       <c r="P409" s="2">
         <v>10980</v>
       </c>
-      <c r="U409" s="4"/>
-      <c r="V409" s="4"/>
+      <c r="T409" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W409" s="4" t="s">
         <v>1233</v>
       </c>
@@ -27233,8 +27648,9 @@
       <c r="P410" s="2">
         <v>27280</v>
       </c>
-      <c r="U410" s="4"/>
-      <c r="V410" s="4"/>
+      <c r="T410" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W410" s="4" t="s">
         <v>1236</v>
       </c>
@@ -27287,8 +27703,9 @@
       <c r="P411" s="2">
         <v>27508</v>
       </c>
-      <c r="U411" s="4"/>
-      <c r="V411" s="4"/>
+      <c r="T411" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W411" s="4" t="s">
         <v>1240</v>
       </c>
@@ -27341,8 +27758,9 @@
       <c r="P412" s="2">
         <v>46200</v>
       </c>
-      <c r="U412" s="4"/>
-      <c r="V412" s="4"/>
+      <c r="T412" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W412" s="4" t="s">
         <v>1244</v>
       </c>
@@ -27395,8 +27813,9 @@
       <c r="P413" s="2">
         <v>11295</v>
       </c>
-      <c r="U413" s="4"/>
-      <c r="V413" s="4"/>
+      <c r="T413" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W413" s="4" t="s">
         <v>1247</v>
       </c>
@@ -27449,8 +27868,9 @@
       <c r="P414" s="2">
         <v>33250</v>
       </c>
-      <c r="U414" s="4"/>
-      <c r="V414" s="4"/>
+      <c r="T414" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W414" s="4" t="s">
         <v>1250</v>
       </c>
@@ -27503,8 +27923,9 @@
       <c r="P415" s="2">
         <v>21605</v>
       </c>
-      <c r="U415" s="4"/>
-      <c r="V415" s="4"/>
+      <c r="T415" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W415" s="4" t="s">
         <v>1253</v>
       </c>
@@ -27557,8 +27978,9 @@
       <c r="P416" s="2">
         <v>16800</v>
       </c>
-      <c r="U416" s="4"/>
-      <c r="V416" s="4"/>
+      <c r="T416" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W416" s="4" t="s">
         <v>1255</v>
       </c>
@@ -27611,8 +28033,9 @@
       <c r="P417" s="2">
         <v>22960</v>
       </c>
-      <c r="U417" s="4"/>
-      <c r="V417" s="4"/>
+      <c r="T417" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W417" s="4" t="s">
         <v>1258</v>
       </c>
@@ -27665,8 +28088,9 @@
       <c r="P418" s="2">
         <v>19500</v>
       </c>
-      <c r="U418" s="4"/>
-      <c r="V418" s="4"/>
+      <c r="T418" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W418" s="4" t="s">
         <v>1261</v>
       </c>
@@ -27719,8 +28143,9 @@
       <c r="P419" s="2">
         <v>23415</v>
       </c>
-      <c r="U419" s="4"/>
-      <c r="V419" s="4"/>
+      <c r="T419" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W419" s="4" t="s">
         <v>1264</v>
       </c>
@@ -27773,8 +28198,9 @@
       <c r="P420" s="2">
         <v>22968</v>
       </c>
-      <c r="U420" s="4"/>
-      <c r="V420" s="4"/>
+      <c r="T420" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W420" s="4" t="s">
         <v>1266</v>
       </c>
@@ -27827,8 +28253,9 @@
       <c r="P421" s="2">
         <v>24570</v>
       </c>
-      <c r="U421" s="4"/>
-      <c r="V421" s="4"/>
+      <c r="T421" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W421" s="4" t="s">
         <v>1269</v>
       </c>
@@ -27881,8 +28308,9 @@
       <c r="P422" s="2">
         <v>24800</v>
       </c>
-      <c r="U422" s="4"/>
-      <c r="V422" s="4"/>
+      <c r="T422" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W422" s="4" t="s">
         <v>1272</v>
       </c>
@@ -27935,8 +28363,9 @@
       <c r="P423" s="2">
         <v>16275</v>
       </c>
-      <c r="U423" s="4"/>
-      <c r="V423" s="4"/>
+      <c r="T423" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W423" s="4" t="s">
         <v>1274</v>
       </c>
@@ -27989,8 +28418,9 @@
       <c r="P424" s="2">
         <v>18900</v>
       </c>
-      <c r="U424" s="4"/>
-      <c r="V424" s="4"/>
+      <c r="T424" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W424" s="4" t="s">
         <v>1277</v>
       </c>
@@ -28043,8 +28473,9 @@
       <c r="P425" s="2">
         <v>28080</v>
       </c>
-      <c r="U425" s="4"/>
-      <c r="V425" s="4"/>
+      <c r="T425" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W425" s="4" t="s">
         <v>1280</v>
       </c>
@@ -28097,8 +28528,9 @@
       <c r="P426" s="2">
         <v>22680</v>
       </c>
-      <c r="U426" s="4"/>
-      <c r="V426" s="4"/>
+      <c r="T426" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W426" s="4" t="s">
         <v>1284</v>
       </c>
@@ -28151,8 +28583,9 @@
       <c r="P427" s="2">
         <v>23870</v>
       </c>
-      <c r="U427" s="4"/>
-      <c r="V427" s="4"/>
+      <c r="T427" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W427" s="4" t="s">
         <v>1287</v>
       </c>
@@ -28205,8 +28638,9 @@
       <c r="P428" s="2">
         <v>29200</v>
       </c>
-      <c r="U428" s="4"/>
-      <c r="V428" s="4"/>
+      <c r="T428" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W428" s="4" t="s">
         <v>1290</v>
       </c>
@@ -28259,8 +28693,9 @@
       <c r="P429" s="2">
         <v>21960</v>
       </c>
-      <c r="U429" s="4"/>
-      <c r="V429" s="4"/>
+      <c r="T429" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W429" s="4" t="s">
         <v>1294</v>
       </c>
@@ -28313,8 +28748,9 @@
       <c r="P430" s="2">
         <v>30921</v>
       </c>
-      <c r="U430" s="4"/>
-      <c r="V430" s="4"/>
+      <c r="T430" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W430" s="4" t="s">
         <v>1297</v>
       </c>
@@ -28367,8 +28803,9 @@
       <c r="P431" s="2">
         <v>27025</v>
       </c>
-      <c r="U431" s="4"/>
-      <c r="V431" s="4"/>
+      <c r="T431" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W431" s="4" t="s">
         <v>1299</v>
       </c>
@@ -28421,8 +28858,9 @@
       <c r="P432" s="2">
         <v>8190</v>
       </c>
-      <c r="U432" s="4"/>
-      <c r="V432" s="4"/>
+      <c r="T432" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W432" s="4" t="s">
         <v>1303</v>
       </c>
@@ -28475,8 +28913,9 @@
       <c r="P433" s="2">
         <v>19110</v>
       </c>
-      <c r="U433" s="4"/>
-      <c r="V433" s="4"/>
+      <c r="T433" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W433" s="4" t="s">
         <v>1306</v>
       </c>
@@ -28529,8 +28968,9 @@
       <c r="P434" s="2">
         <v>13039</v>
       </c>
-      <c r="U434" s="4"/>
-      <c r="V434" s="4"/>
+      <c r="T434" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W434" s="4" t="s">
         <v>1309</v>
       </c>
@@ -28583,8 +29023,9 @@
       <c r="P435" s="2">
         <v>15100</v>
       </c>
-      <c r="U435" s="4"/>
-      <c r="V435" s="4"/>
+      <c r="T435" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W435" s="4" t="s">
         <v>1312</v>
       </c>
@@ -28637,8 +29078,9 @@
       <c r="P436" s="2">
         <v>17820</v>
       </c>
-      <c r="U436" s="4"/>
-      <c r="V436" s="4"/>
+      <c r="T436" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W436" s="4" t="s">
         <v>1316</v>
       </c>
@@ -28691,8 +29133,9 @@
       <c r="P437" s="2">
         <v>22320</v>
       </c>
-      <c r="U437" s="4"/>
-      <c r="V437" s="4"/>
+      <c r="T437" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W437" s="4" t="s">
         <v>1318</v>
       </c>
@@ -28745,8 +29188,9 @@
       <c r="P438" s="2">
         <v>16800</v>
       </c>
-      <c r="U438" s="4"/>
-      <c r="V438" s="4"/>
+      <c r="T438" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W438" s="4" t="s">
         <v>1321</v>
       </c>
@@ -28799,8 +29243,9 @@
       <c r="P439" s="2">
         <v>9770</v>
       </c>
-      <c r="U439" s="4"/>
-      <c r="V439" s="4"/>
+      <c r="T439" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W439" s="4" t="s">
         <v>1322</v>
       </c>
@@ -28853,8 +29298,9 @@
       <c r="P440" s="2">
         <v>21250</v>
       </c>
-      <c r="U440" s="4"/>
-      <c r="V440" s="4"/>
+      <c r="T440" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W440" s="4" t="s">
         <v>1326</v>
       </c>
@@ -28907,8 +29353,9 @@
       <c r="P441" s="2">
         <v>27200</v>
       </c>
-      <c r="U441" s="4"/>
-      <c r="V441" s="4"/>
+      <c r="T441" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W441" s="4" t="s">
         <v>1330</v>
       </c>
@@ -28961,8 +29408,9 @@
       <c r="P442" s="2">
         <v>26544</v>
       </c>
-      <c r="U442" s="4"/>
-      <c r="V442" s="4"/>
+      <c r="T442" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W442" s="4" t="s">
         <v>1333</v>
       </c>
@@ -29015,8 +29463,9 @@
       <c r="P443" s="2">
         <v>23842</v>
       </c>
-      <c r="U443" s="4"/>
-      <c r="V443" s="4"/>
+      <c r="T443" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W443" s="4" t="s">
         <v>1336</v>
       </c>
@@ -29069,8 +29518,9 @@
       <c r="P444" s="2">
         <v>22610</v>
       </c>
-      <c r="U444" s="4"/>
-      <c r="V444" s="4"/>
+      <c r="T444" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W444" s="4" t="s">
         <v>1338</v>
       </c>
@@ -29123,8 +29573,9 @@
       <c r="P445" s="2">
         <v>27930</v>
       </c>
-      <c r="U445" s="4"/>
-      <c r="V445" s="4"/>
+      <c r="T445" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W445" s="4" t="s">
         <v>1341</v>
       </c>
@@ -29177,8 +29628,9 @@
       <c r="P446" s="2">
         <v>21060</v>
       </c>
-      <c r="U446" s="4"/>
-      <c r="V446" s="4"/>
+      <c r="T446" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W446" s="4" t="s">
         <v>1344</v>
       </c>
@@ -29231,8 +29683,9 @@
       <c r="P447" s="2">
         <v>29000</v>
       </c>
-      <c r="U447" s="4"/>
-      <c r="V447" s="4"/>
+      <c r="T447" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W447" s="4" t="s">
         <v>1346</v>
       </c>
@@ -29285,8 +29738,9 @@
       <c r="P448" s="2">
         <v>20020</v>
       </c>
-      <c r="U448" s="4"/>
-      <c r="V448" s="4"/>
+      <c r="T448" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W448" s="4" t="s">
         <v>1349</v>
       </c>
@@ -29339,8 +29793,9 @@
       <c r="P449" s="2">
         <v>19440</v>
       </c>
-      <c r="U449" s="4"/>
-      <c r="V449" s="4"/>
+      <c r="T449" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W449" s="4" t="s">
         <v>1353</v>
       </c>
@@ -29393,8 +29848,9 @@
       <c r="P450" s="2">
         <v>29500</v>
       </c>
-      <c r="U450" s="4"/>
-      <c r="V450" s="4"/>
+      <c r="T450" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W450" s="4" t="s">
         <v>1355</v>
       </c>
@@ -29447,8 +29903,9 @@
       <c r="P451" s="2">
         <v>18445</v>
       </c>
-      <c r="U451" s="4"/>
-      <c r="V451" s="4"/>
+      <c r="T451" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W451" s="4" t="s">
         <v>1359</v>
       </c>
@@ -29501,8 +29958,9 @@
       <c r="P452" s="2">
         <v>15600</v>
       </c>
-      <c r="U452" s="4"/>
-      <c r="V452" s="4"/>
+      <c r="T452" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W452" s="4" t="s">
         <v>1363</v>
       </c>
@@ -29555,8 +30013,9 @@
       <c r="P453" s="2">
         <v>9724</v>
       </c>
-      <c r="U453" s="4"/>
-      <c r="V453" s="4"/>
+      <c r="T453" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W453" s="4" t="s">
         <v>1366</v>
       </c>
@@ -29609,8 +30068,9 @@
       <c r="P454" s="2">
         <v>13800</v>
       </c>
-      <c r="U454" s="4"/>
-      <c r="V454" s="4"/>
+      <c r="T454" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W454" s="4" t="s">
         <v>1369</v>
       </c>
@@ -29663,8 +30123,9 @@
       <c r="P455" s="2">
         <v>34800</v>
       </c>
-      <c r="U455" s="4"/>
-      <c r="V455" s="4"/>
+      <c r="T455" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W455" s="4" t="s">
         <v>1372</v>
       </c>
@@ -29717,8 +30178,9 @@
       <c r="P456" s="2">
         <v>29240</v>
       </c>
-      <c r="U456" s="4"/>
-      <c r="V456" s="4"/>
+      <c r="T456" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W456" s="4" t="s">
         <v>1375</v>
       </c>
@@ -29771,8 +30233,9 @@
       <c r="P457" s="2">
         <v>1100</v>
       </c>
-      <c r="U457" s="4"/>
-      <c r="V457" s="4"/>
+      <c r="T457" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W457" s="4" t="s">
         <v>1379</v>
       </c>
@@ -29825,8 +30288,9 @@
       <c r="P458" s="2">
         <v>1215</v>
       </c>
-      <c r="U458" s="4"/>
-      <c r="V458" s="4"/>
+      <c r="T458" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W458" s="4" t="s">
         <v>1382</v>
       </c>
@@ -29879,8 +30343,9 @@
       <c r="P459" s="2">
         <v>1799</v>
       </c>
-      <c r="U459" s="4"/>
-      <c r="V459" s="4"/>
+      <c r="T459" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W459" s="4" t="s">
         <v>1385</v>
       </c>
@@ -29933,8 +30398,9 @@
       <c r="P460" s="2">
         <v>1170</v>
       </c>
-      <c r="U460" s="4"/>
-      <c r="V460" s="4"/>
+      <c r="T460" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W460" s="4" t="s">
         <v>1388</v>
       </c>
@@ -29987,8 +30453,9 @@
       <c r="P461" s="2">
         <v>1260</v>
       </c>
-      <c r="U461" s="4"/>
-      <c r="V461" s="4"/>
+      <c r="T461" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W461" s="4" t="s">
         <v>1391</v>
       </c>
@@ -30041,8 +30508,9 @@
       <c r="P462" s="2">
         <v>1550</v>
       </c>
-      <c r="U462" s="4"/>
-      <c r="V462" s="4"/>
+      <c r="T462" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W462" s="4" t="s">
         <v>1394</v>
       </c>
@@ -30095,8 +30563,9 @@
       <c r="P463" s="2">
         <v>1035</v>
       </c>
-      <c r="U463" s="4"/>
-      <c r="V463" s="4"/>
+      <c r="T463" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W463" s="4" t="s">
         <v>1396</v>
       </c>
@@ -30149,8 +30618,9 @@
       <c r="P464" s="2">
         <v>1710</v>
       </c>
-      <c r="U464" s="4"/>
-      <c r="V464" s="4"/>
+      <c r="T464" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W464" s="4" t="s">
         <v>1399</v>
       </c>
@@ -30203,8 +30673,9 @@
       <c r="P465" s="2">
         <v>1440</v>
       </c>
-      <c r="U465" s="4"/>
-      <c r="V465" s="4"/>
+      <c r="T465" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W465" s="4" t="s">
         <v>1402</v>
       </c>
@@ -30257,8 +30728,9 @@
       <c r="P466" s="2">
         <v>1050</v>
       </c>
-      <c r="U466" s="4"/>
-      <c r="V466" s="4"/>
+      <c r="T466" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W466" s="4" t="s">
         <v>1404</v>
       </c>
@@ -30311,8 +30783,9 @@
       <c r="P467" s="2">
         <v>1485</v>
       </c>
-      <c r="U467" s="4"/>
-      <c r="V467" s="4"/>
+      <c r="T467" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W467" s="4" t="s">
         <v>1407</v>
       </c>
@@ -30365,8 +30838,9 @@
       <c r="P468" s="2">
         <v>2385</v>
       </c>
-      <c r="U468" s="4"/>
-      <c r="V468" s="4"/>
+      <c r="T468" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W468" s="4" t="s">
         <v>1409</v>
       </c>
@@ -30419,8 +30893,9 @@
       <c r="P469" s="2">
         <v>2160</v>
       </c>
-      <c r="U469" s="4"/>
-      <c r="V469" s="4"/>
+      <c r="T469" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W469" s="4" t="s">
         <v>1412</v>
       </c>
@@ -30473,8 +30948,9 @@
       <c r="P470" s="2">
         <v>2160</v>
       </c>
-      <c r="U470" s="4"/>
-      <c r="V470" s="4"/>
+      <c r="T470" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W470" s="4" t="s">
         <v>1415</v>
       </c>
@@ -30527,8 +31003,9 @@
       <c r="P471" s="2">
         <v>2025</v>
       </c>
-      <c r="U471" s="4"/>
-      <c r="V471" s="4"/>
+      <c r="T471" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W471" s="4" t="s">
         <v>1417</v>
       </c>
@@ -30581,8 +31058,9 @@
       <c r="P472" s="2">
         <v>2565</v>
       </c>
-      <c r="U472" s="4"/>
-      <c r="V472" s="4"/>
+      <c r="T472" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W472" s="4" t="s">
         <v>1420</v>
       </c>
@@ -30635,8 +31113,9 @@
       <c r="P473" s="2">
         <v>2070</v>
       </c>
-      <c r="U473" s="4"/>
-      <c r="V473" s="4"/>
+      <c r="T473" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W473" s="4" t="s">
         <v>1423</v>
       </c>
@@ -30689,8 +31168,9 @@
       <c r="P474" s="2">
         <v>1530</v>
       </c>
-      <c r="U474" s="4"/>
-      <c r="V474" s="4"/>
+      <c r="T474" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W474" s="4" t="s">
         <v>1426</v>
       </c>
@@ -30743,8 +31223,9 @@
       <c r="P475" s="2">
         <v>1520</v>
       </c>
-      <c r="U475" s="4"/>
-      <c r="V475" s="4"/>
+      <c r="T475" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W475" s="4" t="s">
         <v>1428</v>
       </c>
@@ -30797,8 +31278,9 @@
       <c r="P476" s="2">
         <v>1600</v>
       </c>
-      <c r="U476" s="4"/>
-      <c r="V476" s="4"/>
+      <c r="T476" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W476" s="4" t="s">
         <v>1431</v>
       </c>
@@ -30851,8 +31333,9 @@
       <c r="P477" s="2">
         <v>1800</v>
       </c>
-      <c r="U477" s="4"/>
-      <c r="V477" s="4"/>
+      <c r="T477" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W477" s="4" t="s">
         <v>1433</v>
       </c>
@@ -30905,8 +31388,9 @@
       <c r="P478" s="2">
         <v>2400</v>
       </c>
-      <c r="U478" s="4"/>
-      <c r="V478" s="4"/>
+      <c r="T478" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W478" s="4" t="s">
         <v>1436</v>
       </c>
@@ -30959,8 +31443,9 @@
       <c r="P479" s="2">
         <v>1620</v>
       </c>
-      <c r="U479" s="4"/>
-      <c r="V479" s="4"/>
+      <c r="T479" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W479" s="4" t="s">
         <v>1438</v>
       </c>
@@ -31013,8 +31498,9 @@
       <c r="P480" s="2">
         <v>1170</v>
       </c>
-      <c r="U480" s="4"/>
-      <c r="V480" s="4"/>
+      <c r="T480" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W480" s="4" t="s">
         <v>1441</v>
       </c>
@@ -31067,8 +31553,9 @@
       <c r="P481" s="2">
         <v>2040</v>
       </c>
-      <c r="U481" s="4"/>
-      <c r="V481" s="4"/>
+      <c r="T481" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W481" s="4" t="s">
         <v>1443</v>
       </c>
@@ -31121,8 +31608,9 @@
       <c r="P482" s="2">
         <v>2040</v>
       </c>
-      <c r="U482" s="4"/>
-      <c r="V482" s="4"/>
+      <c r="T482" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W482" s="4" t="s">
         <v>1446</v>
       </c>
@@ -31175,8 +31663,9 @@
       <c r="P483" s="2">
         <v>1400</v>
       </c>
-      <c r="U483" s="4"/>
-      <c r="V483" s="4"/>
+      <c r="T483" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W483" s="4" t="s">
         <v>1448</v>
       </c>
@@ -31229,8 +31718,9 @@
       <c r="P484" s="2">
         <v>2000</v>
       </c>
-      <c r="U484" s="4"/>
-      <c r="V484" s="4"/>
+      <c r="T484" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W484" s="4" t="s">
         <v>1451</v>
       </c>
@@ -31283,8 +31773,9 @@
       <c r="P485" s="2">
         <v>1530</v>
       </c>
-      <c r="U485" s="4"/>
-      <c r="V485" s="4"/>
+      <c r="T485" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W485" s="4" t="s">
         <v>1454</v>
       </c>
@@ -31337,8 +31828,9 @@
       <c r="P486" s="2">
         <v>1200</v>
       </c>
-      <c r="U486" s="4"/>
-      <c r="V486" s="4"/>
+      <c r="T486" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W486" s="4" t="s">
         <v>1456</v>
       </c>
@@ -31391,8 +31883,9 @@
       <c r="P487" s="2">
         <v>2115</v>
       </c>
-      <c r="U487" s="4"/>
-      <c r="V487" s="4"/>
+      <c r="T487" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W487" s="4" t="s">
         <v>1458</v>
       </c>
@@ -31445,8 +31938,9 @@
       <c r="P488" s="2">
         <v>1350</v>
       </c>
-      <c r="U488" s="4"/>
-      <c r="V488" s="4"/>
+      <c r="T488" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W488" s="4" t="s">
         <v>1461</v>
       </c>
@@ -31499,8 +31993,9 @@
       <c r="P489" s="2">
         <v>1395</v>
       </c>
-      <c r="U489" s="4"/>
-      <c r="V489" s="4"/>
+      <c r="T489" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W489" s="4" t="s">
         <v>1464</v>
       </c>
@@ -31553,8 +32048,9 @@
       <c r="P490" s="2">
         <v>1440</v>
       </c>
-      <c r="U490" s="4"/>
-      <c r="V490" s="4"/>
+      <c r="T490" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W490" s="4" t="s">
         <v>1466</v>
       </c>
@@ -31607,8 +32103,9 @@
       <c r="P491" s="2">
         <v>1800</v>
       </c>
-      <c r="U491" s="4"/>
-      <c r="V491" s="4"/>
+      <c r="T491" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W491" s="4" t="s">
         <v>1469</v>
       </c>
@@ -31661,8 +32158,9 @@
       <c r="P492" s="2">
         <v>1720</v>
       </c>
-      <c r="U492" s="4"/>
-      <c r="V492" s="4"/>
+      <c r="T492" s="7" t="s">
+        <v>1474</v>
+      </c>
       <c r="W492" s="4" t="s">
         <v>1471</v>
       </c>
@@ -31681,8 +32179,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AA42EED-9388-4C9A-9BE2-160259AE958C}">
   <dimension ref="A1:I492"/>
   <sheetViews>
-    <sheetView topLeftCell="A463" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H492"/>
+    <sheetView topLeftCell="A319" workbookViewId="0">
+      <selection activeCell="G319" sqref="G319"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
